--- a/data-migration/xlsx_1900-/1920_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1920_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F858717D-403C-4726-B1F7-69E4E67D847E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02629459-567E-4F77-A9B7-D20EC30E0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1439">
   <si>
     <t>Sommer</t>
   </si>
@@ -3982,9 +3982,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>sidlerhuegenin_e</t>
   </si>
   <si>
@@ -4006,9 +4003,6 @@
     <t>kaufmann_k</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>hottinger_r</t>
   </si>
   <si>
@@ -4237,9 +4231,6 @@
     <t>amberg_e</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4334,6 +4325,18 @@
   </si>
   <si>
     <t>hess_w</t>
+  </si>
+  <si>
+    <t>zuercher_e2</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4677,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,7 +4714,7 @@
         <v>1264</v>
       </c>
       <c r="I1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4737,7 +4740,7 @@
         <v>1265</v>
       </c>
       <c r="I2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4760,10 +4763,10 @@
         <v>953</v>
       </c>
       <c r="H3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4786,10 +4789,10 @@
         <v>954</v>
       </c>
       <c r="H4" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,10 +4815,10 @@
         <v>955</v>
       </c>
       <c r="H5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I5" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4841,7 +4844,7 @@
         <v>1265</v>
       </c>
       <c r="I6" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4867,7 +4870,7 @@
         <v>1267</v>
       </c>
       <c r="I7" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4893,7 +4896,7 @@
         <v>1267</v>
       </c>
       <c r="I8" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4919,10 +4922,10 @@
         <v>1268</v>
       </c>
       <c r="I9" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J9" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4948,7 +4951,7 @@
         <v>1267</v>
       </c>
       <c r="I10" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4974,10 +4977,10 @@
         <v>1268</v>
       </c>
       <c r="I11" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J11" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,10 +5003,10 @@
         <v>962</v>
       </c>
       <c r="H12" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I12" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5029,7 +5032,7 @@
         <v>1269</v>
       </c>
       <c r="I13" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5055,7 +5058,7 @@
         <v>1266</v>
       </c>
       <c r="I14" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5081,7 +5084,7 @@
         <v>1266</v>
       </c>
       <c r="I15" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5107,7 +5110,7 @@
         <v>1266</v>
       </c>
       <c r="I16" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5133,7 +5136,7 @@
         <v>1264</v>
       </c>
       <c r="I17" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5159,7 +5162,7 @@
         <v>1270</v>
       </c>
       <c r="I18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5185,10 +5188,10 @@
         <v>1268</v>
       </c>
       <c r="I19" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J19" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5214,7 +5217,7 @@
         <v>1270</v>
       </c>
       <c r="I20" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5240,7 +5243,7 @@
         <v>1265</v>
       </c>
       <c r="I21" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5266,7 +5269,7 @@
         <v>1265</v>
       </c>
       <c r="I22" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5292,7 +5295,7 @@
         <v>1267</v>
       </c>
       <c r="I23" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,7 +5321,7 @@
         <v>1268</v>
       </c>
       <c r="I24" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5344,7 +5347,7 @@
         <v>1266</v>
       </c>
       <c r="I25" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5370,7 +5373,7 @@
         <v>1264</v>
       </c>
       <c r="I26" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5396,10 +5399,10 @@
         <v>1268</v>
       </c>
       <c r="I27" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J27" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5425,7 +5428,7 @@
         <v>1270</v>
       </c>
       <c r="I28" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5445,7 +5448,7 @@
         <v>513</v>
       </c>
       <c r="H29" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5471,7 +5474,7 @@
         <v>1271</v>
       </c>
       <c r="I30" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5497,7 +5500,7 @@
         <v>1272</v>
       </c>
       <c r="I31" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5523,7 +5526,7 @@
         <v>1271</v>
       </c>
       <c r="I32" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5546,10 +5549,10 @@
         <v>979</v>
       </c>
       <c r="H33" t="s">
-        <v>1405</v>
+        <v>1436</v>
       </c>
       <c r="I33" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5572,10 +5575,10 @@
         <v>962</v>
       </c>
       <c r="H34" t="s">
-        <v>1405</v>
+        <v>1436</v>
       </c>
       <c r="I34" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5601,7 +5604,7 @@
         <v>1272</v>
       </c>
       <c r="I35" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5627,7 +5630,7 @@
         <v>1271</v>
       </c>
       <c r="I36" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5653,7 +5656,7 @@
         <v>1274</v>
       </c>
       <c r="I37" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5679,7 +5682,7 @@
         <v>1275</v>
       </c>
       <c r="I38" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5705,7 +5708,7 @@
         <v>1276</v>
       </c>
       <c r="I39" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5731,7 +5734,7 @@
         <v>1276</v>
       </c>
       <c r="I40" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5757,7 +5760,7 @@
         <v>1277</v>
       </c>
       <c r="I41" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5780,10 +5783,10 @@
         <v>987</v>
       </c>
       <c r="H42" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I42" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5809,7 +5812,7 @@
         <v>1278</v>
       </c>
       <c r="I43" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5835,7 +5838,7 @@
         <v>1278</v>
       </c>
       <c r="I44" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5861,7 +5864,7 @@
         <v>1279</v>
       </c>
       <c r="I45" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5887,7 +5890,7 @@
         <v>1280</v>
       </c>
       <c r="I46" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5913,7 +5916,7 @@
         <v>1281</v>
       </c>
       <c r="I47" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5939,7 +5942,7 @@
         <v>1282</v>
       </c>
       <c r="I48" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5965,7 +5968,7 @@
         <v>1283</v>
       </c>
       <c r="I49" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,7 +5994,7 @@
         <v>1283</v>
       </c>
       <c r="I50" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6017,10 +6020,10 @@
         <v>1284</v>
       </c>
       <c r="I51" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J51" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6046,7 +6049,7 @@
         <v>1285</v>
       </c>
       <c r="I52" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6072,7 +6075,7 @@
         <v>1286</v>
       </c>
       <c r="I53" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,10 +6098,10 @@
         <v>997</v>
       </c>
       <c r="H54" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I54" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6121,10 +6124,10 @@
         <v>970</v>
       </c>
       <c r="H55" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I55" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6150,7 +6153,7 @@
         <v>1288</v>
       </c>
       <c r="I56" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6176,7 +6179,7 @@
         <v>1289</v>
       </c>
       <c r="I57" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,10 +6202,10 @@
         <v>1000</v>
       </c>
       <c r="H58" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I58" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6228,7 +6231,7 @@
         <v>1291</v>
       </c>
       <c r="I59" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6254,7 +6257,7 @@
         <v>1291</v>
       </c>
       <c r="I60" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6280,7 +6283,7 @@
         <v>1292</v>
       </c>
       <c r="I61" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6306,7 +6309,7 @@
         <v>1271</v>
       </c>
       <c r="I62" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6332,7 +6335,7 @@
         <v>1276</v>
       </c>
       <c r="I63" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6355,10 +6358,10 @@
         <v>1005</v>
       </c>
       <c r="H64" t="s">
-        <v>1274</v>
+        <v>1435</v>
       </c>
       <c r="I64" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6384,7 +6387,7 @@
         <v>1283</v>
       </c>
       <c r="I65" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6410,7 +6413,7 @@
         <v>1283</v>
       </c>
       <c r="I66" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6436,10 +6439,10 @@
         <v>1284</v>
       </c>
       <c r="I67" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J67" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6465,10 +6468,10 @@
         <v>1284</v>
       </c>
       <c r="I68" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J68" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6494,7 +6497,7 @@
         <v>1282</v>
       </c>
       <c r="I69" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6520,7 +6523,7 @@
         <v>1285</v>
       </c>
       <c r="I70" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6546,13 +6549,13 @@
         <v>1286</v>
       </c>
       <c r="I71" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="K71" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="L71" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6578,7 +6581,7 @@
         <v>1291</v>
       </c>
       <c r="I72" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6604,7 +6607,7 @@
         <v>1291</v>
       </c>
       <c r="I73" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6630,7 +6633,7 @@
         <v>1291</v>
       </c>
       <c r="I74" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6656,7 +6659,7 @@
         <v>1293</v>
       </c>
       <c r="I75" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6679,10 +6682,10 @@
         <v>1014</v>
       </c>
       <c r="H76" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I76" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6711,7 +6714,7 @@
         <v>1294</v>
       </c>
       <c r="I77" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6737,7 +6740,7 @@
         <v>1294</v>
       </c>
       <c r="I78" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6763,19 +6766,19 @@
         <v>1294</v>
       </c>
       <c r="I79" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="K79" t="s">
         <v>1296</v>
       </c>
       <c r="L79" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="M79" t="s">
         <v>1295</v>
       </c>
       <c r="N79" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6801,7 +6804,7 @@
         <v>1294</v>
       </c>
       <c r="I80" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6830,7 +6833,7 @@
         <v>1295</v>
       </c>
       <c r="I81" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6856,7 +6859,7 @@
         <v>1296</v>
       </c>
       <c r="I82" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6882,7 +6885,7 @@
         <v>1297</v>
       </c>
       <c r="I83" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6908,7 +6911,7 @@
         <v>1297</v>
       </c>
       <c r="I84" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6934,7 +6937,7 @@
         <v>1297</v>
       </c>
       <c r="I85" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6960,7 +6963,7 @@
         <v>1297</v>
       </c>
       <c r="I86" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6986,7 +6989,7 @@
         <v>1298</v>
       </c>
       <c r="I87" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -7012,7 +7015,7 @@
         <v>1299</v>
       </c>
       <c r="I88" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -7038,7 +7041,7 @@
         <v>1299</v>
       </c>
       <c r="I89" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -7064,7 +7067,7 @@
         <v>1299</v>
       </c>
       <c r="I90" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -7090,7 +7093,7 @@
         <v>1300</v>
       </c>
       <c r="I91" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -7116,7 +7119,7 @@
         <v>1300</v>
       </c>
       <c r="I92" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -7142,7 +7145,7 @@
         <v>1300</v>
       </c>
       <c r="I93" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -7168,7 +7171,7 @@
         <v>1300</v>
       </c>
       <c r="I94" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -7194,7 +7197,7 @@
         <v>1301</v>
       </c>
       <c r="I95" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -7220,13 +7223,13 @@
         <v>1301</v>
       </c>
       <c r="I96" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="K96" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="L96" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -7252,7 +7255,7 @@
         <v>1301</v>
       </c>
       <c r="I97" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7278,7 +7281,7 @@
         <v>1302</v>
       </c>
       <c r="I98" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7304,7 +7307,7 @@
         <v>1302</v>
       </c>
       <c r="I99" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7330,7 +7333,7 @@
         <v>1302</v>
       </c>
       <c r="I100" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7356,7 +7359,7 @@
         <v>1303</v>
       </c>
       <c r="I101" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7382,7 +7385,7 @@
         <v>1303</v>
       </c>
       <c r="I102" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7408,7 +7411,7 @@
         <v>1303</v>
       </c>
       <c r="I103" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7431,13 +7434,13 @@
         <v>1038</v>
       </c>
       <c r="H104" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I104" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J104" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7460,13 +7463,13 @@
         <v>1039</v>
       </c>
       <c r="H105" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I105" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J105" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7489,13 +7492,13 @@
         <v>1040</v>
       </c>
       <c r="H106" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I106" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J106" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7521,7 +7524,7 @@
         <v>1304</v>
       </c>
       <c r="I107" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7547,7 +7550,7 @@
         <v>1305</v>
       </c>
       <c r="I108" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7573,7 +7576,7 @@
         <v>1305</v>
       </c>
       <c r="I109" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7599,7 +7602,7 @@
         <v>1306</v>
       </c>
       <c r="I110" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7625,7 +7628,7 @@
         <v>1306</v>
       </c>
       <c r="I111" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7651,7 +7654,7 @@
         <v>1306</v>
       </c>
       <c r="I112" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7677,7 +7680,7 @@
         <v>1307</v>
       </c>
       <c r="I113" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7703,7 +7706,7 @@
         <v>1307</v>
       </c>
       <c r="I114" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7729,7 +7732,7 @@
         <v>1307</v>
       </c>
       <c r="I115" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7755,7 +7758,7 @@
         <v>1308</v>
       </c>
       <c r="I116" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7781,7 +7784,7 @@
         <v>1308</v>
       </c>
       <c r="I117" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7807,7 +7810,7 @@
         <v>1309</v>
       </c>
       <c r="I118" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7833,13 +7836,13 @@
         <v>1309</v>
       </c>
       <c r="I119" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="K119" t="s">
         <v>1310</v>
       </c>
       <c r="L119" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7865,13 +7868,13 @@
         <v>1309</v>
       </c>
       <c r="I120" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="K120" t="s">
         <v>1294</v>
       </c>
       <c r="L120" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7897,7 +7900,7 @@
         <v>1309</v>
       </c>
       <c r="I121" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7923,7 +7926,7 @@
         <v>1310</v>
       </c>
       <c r="I122" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7949,7 +7952,7 @@
         <v>1310</v>
       </c>
       <c r="I123" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7975,7 +7978,7 @@
         <v>1311</v>
       </c>
       <c r="I124" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8001,7 +8004,7 @@
         <v>1311</v>
       </c>
       <c r="I125" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8027,7 +8030,7 @@
         <v>1311</v>
       </c>
       <c r="I126" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8053,7 +8056,7 @@
         <v>1312</v>
       </c>
       <c r="I127" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8076,10 +8079,10 @@
         <v>990</v>
       </c>
       <c r="H128" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I128" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8105,7 +8108,7 @@
         <v>1314</v>
       </c>
       <c r="I129" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8131,7 +8134,7 @@
         <v>1315</v>
       </c>
       <c r="I130" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8157,7 +8160,7 @@
         <v>1315</v>
       </c>
       <c r="I131" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8183,7 +8186,7 @@
         <v>1316</v>
       </c>
       <c r="I132" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8209,7 +8212,7 @@
         <v>1316</v>
       </c>
       <c r="I133" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8235,7 +8238,7 @@
         <v>1317</v>
       </c>
       <c r="I134" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8261,7 +8264,7 @@
         <v>1317</v>
       </c>
       <c r="I135" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8287,7 +8290,7 @@
         <v>1318</v>
       </c>
       <c r="I136" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8313,7 +8316,7 @@
         <v>1318</v>
       </c>
       <c r="I137" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8339,7 +8342,7 @@
         <v>1319</v>
       </c>
       <c r="I138" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8362,10 +8365,10 @@
         <v>1064</v>
       </c>
       <c r="H139" t="s">
-        <v>1320</v>
+        <v>1438</v>
       </c>
       <c r="I139" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8388,10 +8391,10 @@
         <v>1065</v>
       </c>
       <c r="H140" t="s">
-        <v>1320</v>
+        <v>1438</v>
       </c>
       <c r="I140" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8414,10 +8417,10 @@
         <v>1066</v>
       </c>
       <c r="H141" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I141" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8440,10 +8443,10 @@
         <v>1067</v>
       </c>
       <c r="H142" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I142" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8466,10 +8469,10 @@
         <v>1068</v>
       </c>
       <c r="H143" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I143" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8492,10 +8495,10 @@
         <v>1069</v>
       </c>
       <c r="H144" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I144" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8518,10 +8521,10 @@
         <v>1070</v>
       </c>
       <c r="H145" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I145" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8544,10 +8547,10 @@
         <v>1071</v>
       </c>
       <c r="H146" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I146" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8570,10 +8573,10 @@
         <v>976</v>
       </c>
       <c r="H147" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I147" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8596,10 +8599,10 @@
         <v>1072</v>
       </c>
       <c r="H148" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I148" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8622,10 +8625,10 @@
         <v>1073</v>
       </c>
       <c r="H149" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I149" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8648,10 +8651,10 @@
         <v>1074</v>
       </c>
       <c r="H150" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I150" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8674,10 +8677,10 @@
         <v>1075</v>
       </c>
       <c r="H151" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I151" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8700,10 +8703,10 @@
         <v>1076</v>
       </c>
       <c r="H152" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I152" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8726,10 +8729,10 @@
         <v>1077</v>
       </c>
       <c r="H153" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I153" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8752,10 +8755,10 @@
         <v>1078</v>
       </c>
       <c r="H154" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I154" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8778,10 +8781,10 @@
         <v>1079</v>
       </c>
       <c r="H155" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I155" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8804,10 +8807,10 @@
         <v>1080</v>
       </c>
       <c r="H156" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I156" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8830,16 +8833,16 @@
         <v>1081</v>
       </c>
       <c r="H157" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I157" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L157" t="s">
         <v>1421</v>
-      </c>
-      <c r="K157" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L157" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8862,10 +8865,10 @@
         <v>1082</v>
       </c>
       <c r="H158" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I158" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8888,10 +8891,10 @@
         <v>1083</v>
       </c>
       <c r="H159" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I159" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8914,10 +8917,10 @@
         <v>1084</v>
       </c>
       <c r="H160" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I160" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8940,10 +8943,10 @@
         <v>1085</v>
       </c>
       <c r="H161" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I161" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8966,10 +8969,10 @@
         <v>1008</v>
       </c>
       <c r="H162" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I162" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8992,10 +8995,10 @@
         <v>1086</v>
       </c>
       <c r="H163" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I163" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9018,10 +9021,10 @@
         <v>1087</v>
       </c>
       <c r="H164" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I164" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9044,10 +9047,10 @@
         <v>1088</v>
       </c>
       <c r="H165" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I165" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9070,10 +9073,10 @@
         <v>1089</v>
       </c>
       <c r="H166" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I166" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9096,10 +9099,10 @@
         <v>1090</v>
       </c>
       <c r="H167" t="s">
-        <v>1328</v>
+        <v>1437</v>
       </c>
       <c r="I167" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9122,10 +9125,10 @@
         <v>1091</v>
       </c>
       <c r="H168" t="s">
-        <v>1328</v>
+        <v>1437</v>
       </c>
       <c r="I168" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9148,10 +9151,10 @@
         <v>1092</v>
       </c>
       <c r="H169" t="s">
-        <v>1328</v>
+        <v>1437</v>
       </c>
       <c r="I169" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9174,10 +9177,10 @@
         <v>1093</v>
       </c>
       <c r="H170" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I170" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9200,10 +9203,10 @@
         <v>1094</v>
       </c>
       <c r="H171" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I171" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9226,10 +9229,10 @@
         <v>1095</v>
       </c>
       <c r="H172" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I172" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9252,10 +9255,10 @@
         <v>957</v>
       </c>
       <c r="H173" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I173" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9278,10 +9281,10 @@
         <v>1096</v>
       </c>
       <c r="H174" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I174" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9304,10 +9307,10 @@
         <v>1097</v>
       </c>
       <c r="H175" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I175" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9330,10 +9333,10 @@
         <v>1098</v>
       </c>
       <c r="H176" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I176" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9356,10 +9359,10 @@
         <v>1099</v>
       </c>
       <c r="H177" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I177" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9382,10 +9385,10 @@
         <v>1100</v>
       </c>
       <c r="H178" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I178" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9408,10 +9411,10 @@
         <v>1101</v>
       </c>
       <c r="H179" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I179" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9434,10 +9437,10 @@
         <v>1102</v>
       </c>
       <c r="H180" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I180" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9460,10 +9463,10 @@
         <v>1103</v>
       </c>
       <c r="H181" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I181" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9486,10 +9489,10 @@
         <v>1104</v>
       </c>
       <c r="H182" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I182" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,10 +9515,10 @@
         <v>1105</v>
       </c>
       <c r="H183" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I183" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9538,10 +9541,10 @@
         <v>1106</v>
       </c>
       <c r="H184" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I184" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9564,10 +9567,10 @@
         <v>1107</v>
       </c>
       <c r="H185" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I185" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9590,10 +9593,10 @@
         <v>1108</v>
       </c>
       <c r="H186" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I186" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9616,10 +9619,10 @@
         <v>1109</v>
       </c>
       <c r="H187" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I187" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9642,10 +9645,10 @@
         <v>962</v>
       </c>
       <c r="H188" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I188" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9668,10 +9671,10 @@
         <v>1110</v>
       </c>
       <c r="H189" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I189" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9694,10 +9697,10 @@
         <v>1111</v>
       </c>
       <c r="H190" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I190" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9720,10 +9723,10 @@
         <v>1112</v>
       </c>
       <c r="H191" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I191" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9746,10 +9749,10 @@
         <v>1113</v>
       </c>
       <c r="H192" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I192" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9772,10 +9775,10 @@
         <v>1114</v>
       </c>
       <c r="H193" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I193" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9798,10 +9801,10 @@
         <v>1115</v>
       </c>
       <c r="H194" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I194" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9824,10 +9827,10 @@
         <v>1116</v>
       </c>
       <c r="H195" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I195" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9850,10 +9853,10 @@
         <v>1117</v>
       </c>
       <c r="H196" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I196" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9876,10 +9879,10 @@
         <v>1118</v>
       </c>
       <c r="H197" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I197" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9902,10 +9905,10 @@
         <v>1045</v>
       </c>
       <c r="H198" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I198" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9928,10 +9931,10 @@
         <v>1119</v>
       </c>
       <c r="H199" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I199" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9954,10 +9957,10 @@
         <v>1110</v>
       </c>
       <c r="H200" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I200" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9980,10 +9983,10 @@
         <v>989</v>
       </c>
       <c r="H201" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I201" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -10006,10 +10009,10 @@
         <v>1120</v>
       </c>
       <c r="H202" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I202" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -10032,10 +10035,10 @@
         <v>1121</v>
       </c>
       <c r="H203" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I203" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -10058,10 +10061,10 @@
         <v>1122</v>
       </c>
       <c r="H204" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I204" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -10084,13 +10087,13 @@
         <v>1123</v>
       </c>
       <c r="H205" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I205" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J205" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -10113,13 +10116,13 @@
         <v>1124</v>
       </c>
       <c r="H206" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I206" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J206" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -10142,13 +10145,13 @@
         <v>1125</v>
       </c>
       <c r="H207" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I207" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J207" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -10171,13 +10174,13 @@
         <v>1126</v>
       </c>
       <c r="H208" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I208" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J208" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10200,13 +10203,13 @@
         <v>1110</v>
       </c>
       <c r="H209" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I209" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J209" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10229,10 +10232,10 @@
         <v>1127</v>
       </c>
       <c r="H210" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I210" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10255,10 +10258,10 @@
         <v>1128</v>
       </c>
       <c r="H211" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I211" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10281,10 +10284,10 @@
         <v>1129</v>
       </c>
       <c r="H212" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I212" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10307,10 +10310,10 @@
         <v>1130</v>
       </c>
       <c r="H213" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I213" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10333,10 +10336,10 @@
         <v>1131</v>
       </c>
       <c r="H214" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I214" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10359,10 +10362,10 @@
         <v>1118</v>
       </c>
       <c r="H215" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I215" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10385,10 +10388,10 @@
         <v>1110</v>
       </c>
       <c r="H216" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I216" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10411,10 +10414,10 @@
         <v>1132</v>
       </c>
       <c r="H217" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I217" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10437,10 +10440,10 @@
         <v>1133</v>
       </c>
       <c r="H218" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I218" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10463,10 +10466,10 @@
         <v>1134</v>
       </c>
       <c r="H219" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I219" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10489,10 +10492,10 @@
         <v>1110</v>
       </c>
       <c r="H220" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I220" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10515,10 +10518,10 @@
         <v>1135</v>
       </c>
       <c r="H221" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I221" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10541,10 +10544,10 @@
         <v>1136</v>
       </c>
       <c r="H222" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I222" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10567,10 +10570,10 @@
         <v>1137</v>
       </c>
       <c r="H223" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I223" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10593,10 +10596,10 @@
         <v>1138</v>
       </c>
       <c r="H224" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I224" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10619,10 +10622,10 @@
         <v>966</v>
       </c>
       <c r="H225" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I225" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10645,10 +10648,10 @@
         <v>1139</v>
       </c>
       <c r="H226" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I226" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10671,10 +10674,10 @@
         <v>1090</v>
       </c>
       <c r="H227" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I227" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10697,10 +10700,10 @@
         <v>1140</v>
       </c>
       <c r="H228" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I228" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10723,10 +10726,10 @@
         <v>1141</v>
       </c>
       <c r="H229" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I229" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10749,10 +10752,10 @@
         <v>1142</v>
       </c>
       <c r="H230" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I230" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10775,10 +10778,10 @@
         <v>1143</v>
       </c>
       <c r="H231" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I231" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10801,10 +10804,10 @@
         <v>1144</v>
       </c>
       <c r="H232" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I232" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10827,10 +10830,10 @@
         <v>1145</v>
       </c>
       <c r="H233" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I233" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10853,10 +10856,10 @@
         <v>1079</v>
       </c>
       <c r="H234" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I234" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10879,10 +10882,10 @@
         <v>1145</v>
       </c>
       <c r="H235" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I235" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10905,10 +10908,10 @@
         <v>1146</v>
       </c>
       <c r="H236" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I236" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10931,10 +10934,10 @@
         <v>1147</v>
       </c>
       <c r="H237" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I237" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10957,10 +10960,10 @@
         <v>1010</v>
       </c>
       <c r="H238" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I238" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10983,10 +10986,10 @@
         <v>1002</v>
       </c>
       <c r="H239" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I239" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11009,10 +11012,10 @@
         <v>1004</v>
       </c>
       <c r="H240" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I240" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11035,10 +11038,10 @@
         <v>1148</v>
       </c>
       <c r="H241" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I241" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11061,10 +11064,10 @@
         <v>976</v>
       </c>
       <c r="H242" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I242" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11087,10 +11090,10 @@
         <v>1149</v>
       </c>
       <c r="H243" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I243" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11113,10 +11116,10 @@
         <v>990</v>
       </c>
       <c r="H244" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I244" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11139,10 +11142,10 @@
         <v>990</v>
       </c>
       <c r="H245" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I245" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11165,10 +11168,10 @@
         <v>995</v>
       </c>
       <c r="H246" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I246" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11191,10 +11194,10 @@
         <v>1062</v>
       </c>
       <c r="H247" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I247" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11217,10 +11220,10 @@
         <v>1150</v>
       </c>
       <c r="H248" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I248" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11243,10 +11246,10 @@
         <v>1086</v>
       </c>
       <c r="H249" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I249" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11269,10 +11272,10 @@
         <v>1151</v>
       </c>
       <c r="H250" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I250" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11295,10 +11298,10 @@
         <v>1152</v>
       </c>
       <c r="H251" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I251" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11324,7 +11327,7 @@
         <v>1292</v>
       </c>
       <c r="I252" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11347,10 +11350,10 @@
         <v>1154</v>
       </c>
       <c r="H253" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I253" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11373,10 +11376,10 @@
         <v>1155</v>
       </c>
       <c r="H254" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I254" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11402,7 +11405,7 @@
         <v>1292</v>
       </c>
       <c r="I255" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11428,7 +11431,7 @@
         <v>1292</v>
       </c>
       <c r="I256" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11451,10 +11454,10 @@
         <v>1156</v>
       </c>
       <c r="H257" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I257" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11480,7 +11483,7 @@
         <v>1265</v>
       </c>
       <c r="I258" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11506,7 +11509,7 @@
         <v>1265</v>
       </c>
       <c r="I259" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11529,10 +11532,10 @@
         <v>1032</v>
       </c>
       <c r="H260" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I260" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11555,10 +11558,10 @@
         <v>1157</v>
       </c>
       <c r="H261" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I261" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11581,10 +11584,10 @@
         <v>1158</v>
       </c>
       <c r="H262" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I262" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11607,10 +11610,10 @@
         <v>1159</v>
       </c>
       <c r="H263" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I263" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11633,10 +11636,10 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I264" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11659,10 +11662,10 @@
         <v>1160</v>
       </c>
       <c r="H265" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I265" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11685,10 +11688,10 @@
         <v>1161</v>
       </c>
       <c r="H266" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I266" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11711,10 +11714,10 @@
         <v>958</v>
       </c>
       <c r="H267" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I267" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11737,10 +11740,10 @@
         <v>1139</v>
       </c>
       <c r="H268" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I268" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11763,10 +11766,10 @@
         <v>966</v>
       </c>
       <c r="H269" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I269" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11789,10 +11792,10 @@
         <v>966</v>
       </c>
       <c r="H270" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I270" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11818,7 +11821,7 @@
         <v>1292</v>
       </c>
       <c r="I271" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11841,10 +11844,10 @@
         <v>976</v>
       </c>
       <c r="H272" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I272" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11867,10 +11870,10 @@
         <v>962</v>
       </c>
       <c r="H273" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I273" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11893,10 +11896,10 @@
         <v>1115</v>
       </c>
       <c r="H274" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I274" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11919,10 +11922,10 @@
         <v>973</v>
       </c>
       <c r="H275" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I275" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11945,10 +11948,10 @@
         <v>1004</v>
       </c>
       <c r="H276" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I276" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11971,10 +11974,10 @@
         <v>1162</v>
       </c>
       <c r="H277" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I277" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12000,7 +12003,7 @@
         <v>1287</v>
       </c>
       <c r="I278" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12026,7 +12029,7 @@
         <v>1287</v>
       </c>
       <c r="I279" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12052,7 +12055,7 @@
         <v>1287</v>
       </c>
       <c r="I280" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12078,7 +12081,7 @@
         <v>1287</v>
       </c>
       <c r="I281" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12101,10 +12104,10 @@
         <v>1162</v>
       </c>
       <c r="H282" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I282" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12127,10 +12130,10 @@
         <v>951</v>
       </c>
       <c r="H283" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I283" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12153,10 +12156,10 @@
         <v>1165</v>
       </c>
       <c r="H284" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I284" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12179,10 +12182,10 @@
         <v>1166</v>
       </c>
       <c r="H285" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I285" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12205,10 +12208,10 @@
         <v>1167</v>
       </c>
       <c r="H286" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I286" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12234,10 +12237,10 @@
         <v>1168</v>
       </c>
       <c r="H287" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I287" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12260,10 +12263,10 @@
         <v>1010</v>
       </c>
       <c r="H288" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I288" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12286,10 +12289,10 @@
         <v>962</v>
       </c>
       <c r="H289" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I289" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12312,10 +12315,10 @@
         <v>1115</v>
       </c>
       <c r="H290" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I290" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12338,10 +12341,10 @@
         <v>1168</v>
       </c>
       <c r="H291" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I291" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12364,10 +12367,10 @@
         <v>1169</v>
       </c>
       <c r="H292" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I292" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12393,7 +12396,7 @@
         <v>1287</v>
       </c>
       <c r="I293" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12416,10 +12419,10 @@
         <v>1145</v>
       </c>
       <c r="H294" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I294" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12445,7 +12448,7 @@
         <v>1287</v>
       </c>
       <c r="I295" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12471,7 +12474,7 @@
         <v>1287</v>
       </c>
       <c r="I296" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12494,10 +12497,10 @@
         <v>1172</v>
       </c>
       <c r="H297" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I297" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12520,10 +12523,10 @@
         <v>1086</v>
       </c>
       <c r="H298" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I298" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12546,10 +12549,10 @@
         <v>1173</v>
       </c>
       <c r="H299" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I299" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12575,10 +12578,10 @@
         <v>1164</v>
       </c>
       <c r="H300" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I300" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12601,10 +12604,10 @@
         <v>1147</v>
       </c>
       <c r="H301" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I301" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12627,10 +12630,10 @@
         <v>1010</v>
       </c>
       <c r="H302" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I302" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12653,10 +12656,10 @@
         <v>1174</v>
       </c>
       <c r="H303" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I303" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12679,10 +12682,10 @@
         <v>1175</v>
       </c>
       <c r="H304" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I304" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12705,10 +12708,10 @@
         <v>1176</v>
       </c>
       <c r="H305" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I305" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12731,10 +12734,10 @@
         <v>1177</v>
       </c>
       <c r="H306" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I306" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12757,10 +12760,10 @@
         <v>1178</v>
       </c>
       <c r="H307" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I307" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12783,10 +12786,10 @@
         <v>1179</v>
       </c>
       <c r="H308" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I308" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12809,10 +12812,10 @@
         <v>1180</v>
       </c>
       <c r="H309" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I309" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12835,10 +12838,10 @@
         <v>1181</v>
       </c>
       <c r="H310" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I310" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12864,7 +12867,7 @@
         <v>1293</v>
       </c>
       <c r="I311" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12887,10 +12890,10 @@
         <v>979</v>
       </c>
       <c r="H312" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I312" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12913,10 +12916,10 @@
         <v>1182</v>
       </c>
       <c r="H313" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I313" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12939,10 +12942,10 @@
         <v>975</v>
       </c>
       <c r="H314" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I314" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12965,10 +12968,10 @@
         <v>983</v>
       </c>
       <c r="H315" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I315" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12991,10 +12994,10 @@
         <v>1183</v>
       </c>
       <c r="H316" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I316" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13017,10 +13020,10 @@
         <v>982</v>
       </c>
       <c r="H317" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I317" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13040,13 +13043,13 @@
         <v>797</v>
       </c>
       <c r="G318" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H318" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I318" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13069,10 +13072,10 @@
         <v>1184</v>
       </c>
       <c r="H319" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I319" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13095,10 +13098,10 @@
         <v>999</v>
       </c>
       <c r="H320" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I320" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13121,10 +13124,10 @@
         <v>1062</v>
       </c>
       <c r="H321" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I321" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13147,10 +13150,10 @@
         <v>1011</v>
       </c>
       <c r="H322" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I322" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13173,10 +13176,10 @@
         <v>1185</v>
       </c>
       <c r="H323" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I323" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13199,10 +13202,10 @@
         <v>1186</v>
       </c>
       <c r="H324" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I324" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13228,7 +13231,7 @@
         <v>1290</v>
       </c>
       <c r="I325" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13254,7 +13257,7 @@
         <v>1290</v>
       </c>
       <c r="I326" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13277,10 +13280,10 @@
         <v>1062</v>
       </c>
       <c r="H327" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I327" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13303,10 +13306,10 @@
         <v>1188</v>
       </c>
       <c r="H328" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I328" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13329,10 +13332,10 @@
         <v>1014</v>
       </c>
       <c r="H329" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I329" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13355,10 +13358,10 @@
         <v>1021</v>
       </c>
       <c r="H330" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I330" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13381,10 +13384,10 @@
         <v>1102</v>
       </c>
       <c r="H331" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I331" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13407,10 +13410,10 @@
         <v>1139</v>
       </c>
       <c r="H332" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I332" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13436,7 +13439,7 @@
         <v>1290</v>
       </c>
       <c r="I333" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13459,10 +13462,10 @@
         <v>1190</v>
       </c>
       <c r="H334" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I334" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13485,10 +13488,10 @@
         <v>975</v>
       </c>
       <c r="H335" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I335" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13511,10 +13514,10 @@
         <v>1191</v>
       </c>
       <c r="H336" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I336" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13537,10 +13540,10 @@
         <v>1192</v>
       </c>
       <c r="H337" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I337" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13563,13 +13566,13 @@
         <v>975</v>
       </c>
       <c r="H338" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I338" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="J338" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13595,7 +13598,7 @@
         <v>1313</v>
       </c>
       <c r="I339" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13618,10 +13621,10 @@
         <v>1021</v>
       </c>
       <c r="H340" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I340" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13644,10 +13647,10 @@
         <v>995</v>
       </c>
       <c r="H341" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I341" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13670,10 +13673,10 @@
         <v>1053</v>
       </c>
       <c r="H342" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I342" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13696,10 +13699,10 @@
         <v>1020</v>
       </c>
       <c r="H343" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I343" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13722,13 +13725,13 @@
         <v>983</v>
       </c>
       <c r="H344" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I344" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="J344" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13754,7 +13757,7 @@
         <v>1313</v>
       </c>
       <c r="I345" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13780,7 +13783,7 @@
         <v>1273</v>
       </c>
       <c r="I346" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13806,7 +13809,7 @@
         <v>1273</v>
       </c>
       <c r="I347" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13829,10 +13832,10 @@
         <v>971</v>
       </c>
       <c r="H348" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I348" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13855,10 +13858,10 @@
         <v>966</v>
       </c>
       <c r="H349" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I349" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13881,10 +13884,10 @@
         <v>1187</v>
       </c>
       <c r="H350" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I350" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13907,10 +13910,10 @@
         <v>1195</v>
       </c>
       <c r="H351" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I351" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13933,10 +13936,10 @@
         <v>976</v>
       </c>
       <c r="H352" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I352" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
@@ -13959,10 +13962,10 @@
         <v>966</v>
       </c>
       <c r="H353" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I353" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
@@ -13985,10 +13988,10 @@
         <v>966</v>
       </c>
       <c r="H354" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I354" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
@@ -14011,10 +14014,10 @@
         <v>966</v>
       </c>
       <c r="H355" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I355" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
@@ -14037,10 +14040,10 @@
         <v>976</v>
       </c>
       <c r="H356" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I356" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
@@ -14063,10 +14066,10 @@
         <v>966</v>
       </c>
       <c r="H357" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="I357" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
@@ -14089,10 +14092,10 @@
         <v>1155</v>
       </c>
       <c r="H358" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I358" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
@@ -14115,10 +14118,10 @@
         <v>1155</v>
       </c>
       <c r="H359" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I359" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
@@ -14141,10 +14144,10 @@
         <v>976</v>
       </c>
       <c r="H360" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I360" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
@@ -14167,10 +14170,10 @@
         <v>976</v>
       </c>
       <c r="H361" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I361" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
@@ -14193,13 +14196,13 @@
         <v>1196</v>
       </c>
       <c r="H362" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I362" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J362" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
@@ -14222,13 +14225,13 @@
         <v>1011</v>
       </c>
       <c r="H363" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I363" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J363" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
@@ -14251,13 +14254,13 @@
         <v>1011</v>
       </c>
       <c r="H364" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I364" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J364" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
@@ -14280,13 +14283,13 @@
         <v>1197</v>
       </c>
       <c r="H365" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I365" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J365" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
@@ -14309,25 +14312,25 @@
         <v>1170</v>
       </c>
       <c r="H366" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I366" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J366" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="K366" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L366" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M366" t="s">
         <v>1372</v>
       </c>
-      <c r="L366" t="s">
-        <v>1421</v>
-      </c>
-      <c r="M366" t="s">
-        <v>1374</v>
-      </c>
       <c r="N366" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
@@ -14350,10 +14353,10 @@
         <v>1198</v>
       </c>
       <c r="H367" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I367" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
@@ -14376,10 +14379,10 @@
         <v>1199</v>
       </c>
       <c r="H368" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I368" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14402,10 +14405,10 @@
         <v>1200</v>
       </c>
       <c r="H369" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I369" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14428,10 +14431,10 @@
         <v>1201</v>
       </c>
       <c r="H370" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I370" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14454,10 +14457,10 @@
         <v>1202</v>
       </c>
       <c r="H371" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I371" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14480,10 +14483,10 @@
         <v>1203</v>
       </c>
       <c r="H372" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I372" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14506,10 +14509,10 @@
         <v>1072</v>
       </c>
       <c r="H373" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I373" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14535,10 +14538,10 @@
         <v>1204</v>
       </c>
       <c r="H374" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I374" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14564,10 +14567,10 @@
         <v>1205</v>
       </c>
       <c r="H375" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I375" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14593,10 +14596,10 @@
         <v>1020</v>
       </c>
       <c r="H376" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I376" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14622,10 +14625,10 @@
         <v>1178</v>
       </c>
       <c r="H377" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I377" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14651,10 +14654,10 @@
         <v>964</v>
       </c>
       <c r="H378" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I378" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14677,10 +14680,10 @@
         <v>965</v>
       </c>
       <c r="H379" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I379" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14703,10 +14706,10 @@
         <v>1206</v>
       </c>
       <c r="H380" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I380" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14729,10 +14732,10 @@
         <v>1207</v>
       </c>
       <c r="H381" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I381" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14755,10 +14758,10 @@
         <v>1110</v>
       </c>
       <c r="H382" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I382" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14781,10 +14784,10 @@
         <v>1208</v>
       </c>
       <c r="H383" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I383" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14807,10 +14810,10 @@
         <v>1209</v>
       </c>
       <c r="H384" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I384" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14833,10 +14836,10 @@
         <v>1210</v>
       </c>
       <c r="H385" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I385" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14859,10 +14862,10 @@
         <v>1211</v>
       </c>
       <c r="H386" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I386" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14885,10 +14888,10 @@
         <v>997</v>
       </c>
       <c r="H387" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I387" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14911,10 +14914,10 @@
         <v>976</v>
       </c>
       <c r="H388" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I388" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14937,10 +14940,10 @@
         <v>1212</v>
       </c>
       <c r="H389" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="I389" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14963,10 +14966,10 @@
         <v>1164</v>
       </c>
       <c r="H390" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I390" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14989,10 +14992,10 @@
         <v>966</v>
       </c>
       <c r="H391" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I391" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15015,10 +15018,10 @@
         <v>976</v>
       </c>
       <c r="H392" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I392" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15041,10 +15044,10 @@
         <v>1213</v>
       </c>
       <c r="H393" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I393" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15067,10 +15070,10 @@
         <v>1214</v>
       </c>
       <c r="H394" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I394" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15096,10 +15099,10 @@
         <v>1215</v>
       </c>
       <c r="H395" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I395" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15122,10 +15125,10 @@
         <v>1216</v>
       </c>
       <c r="H396" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I396" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15148,10 +15151,10 @@
         <v>1110</v>
       </c>
       <c r="H397" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I397" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15174,10 +15177,10 @@
         <v>1110</v>
       </c>
       <c r="H398" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I398" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15200,10 +15203,10 @@
         <v>1217</v>
       </c>
       <c r="H399" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I399" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15226,10 +15229,10 @@
         <v>1218</v>
       </c>
       <c r="H400" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I400" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15252,10 +15255,10 @@
         <v>998</v>
       </c>
       <c r="H401" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I401" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15278,10 +15281,10 @@
         <v>1009</v>
       </c>
       <c r="H402" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I402" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15304,10 +15307,10 @@
         <v>1219</v>
       </c>
       <c r="H403" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I403" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15330,10 +15333,10 @@
         <v>1220</v>
       </c>
       <c r="H404" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I404" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15356,10 +15359,10 @@
         <v>1221</v>
       </c>
       <c r="H405" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I405" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15382,10 +15385,10 @@
         <v>1222</v>
       </c>
       <c r="H406" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I406" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15408,10 +15411,10 @@
         <v>1223</v>
       </c>
       <c r="H407" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I407" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15434,10 +15437,10 @@
         <v>966</v>
       </c>
       <c r="H408" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I408" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15460,10 +15463,10 @@
         <v>966</v>
       </c>
       <c r="H409" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I409" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15486,10 +15489,10 @@
         <v>976</v>
       </c>
       <c r="H410" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I410" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15512,10 +15515,10 @@
         <v>976</v>
       </c>
       <c r="H411" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I411" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15538,10 +15541,10 @@
         <v>966</v>
       </c>
       <c r="H412" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I412" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15567,10 +15570,10 @@
         <v>1224</v>
       </c>
       <c r="H413" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I413" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15596,10 +15599,10 @@
         <v>1225</v>
       </c>
       <c r="H414" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I414" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15625,10 +15628,10 @@
         <v>1044</v>
       </c>
       <c r="H415" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I415" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15654,10 +15657,10 @@
         <v>1226</v>
       </c>
       <c r="H416" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I416" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15683,10 +15686,10 @@
         <v>1226</v>
       </c>
       <c r="H417" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I417" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15712,10 +15715,10 @@
         <v>1227</v>
       </c>
       <c r="H418" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I418" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15741,10 +15744,10 @@
         <v>1228</v>
       </c>
       <c r="H419" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I419" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15770,10 +15773,10 @@
         <v>1229</v>
       </c>
       <c r="H420" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I420" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15799,10 +15802,10 @@
         <v>1230</v>
       </c>
       <c r="H421" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I421" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15828,10 +15831,10 @@
         <v>1110</v>
       </c>
       <c r="H422" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I422" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15857,10 +15860,10 @@
         <v>995</v>
       </c>
       <c r="H423" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I423" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15886,10 +15889,10 @@
         <v>1231</v>
       </c>
       <c r="H424" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I424" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15915,10 +15918,10 @@
         <v>976</v>
       </c>
       <c r="H425" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I425" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15944,10 +15947,10 @@
         <v>976</v>
       </c>
       <c r="H426" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I426" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15973,10 +15976,10 @@
         <v>1286</v>
       </c>
       <c r="I427" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J427" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16002,10 +16005,10 @@
         <v>1286</v>
       </c>
       <c r="I428" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J428" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16031,10 +16034,10 @@
         <v>1286</v>
       </c>
       <c r="I429" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J429" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16057,16 +16060,16 @@
         <v>1286</v>
       </c>
       <c r="I430" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J430" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K430" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L430" t="s">
         <v>1421</v>
-      </c>
-      <c r="J430" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K430" t="s">
-        <v>1390</v>
-      </c>
-      <c r="L430" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16092,10 +16095,10 @@
         <v>1286</v>
       </c>
       <c r="I431" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J431" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16121,16 +16124,16 @@
         <v>1286</v>
       </c>
       <c r="I432" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J432" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K432" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L432" t="s">
         <v>1421</v>
-      </c>
-      <c r="J432" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K432" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L432" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16153,10 +16156,10 @@
         <v>966</v>
       </c>
       <c r="H433" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I433" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16179,10 +16182,10 @@
         <v>966</v>
       </c>
       <c r="H434" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I434" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16205,10 +16208,10 @@
         <v>976</v>
       </c>
       <c r="H435" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I435" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16231,10 +16234,10 @@
         <v>966</v>
       </c>
       <c r="H436" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I436" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16257,10 +16260,10 @@
         <v>1236</v>
       </c>
       <c r="H437" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I437" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16283,10 +16286,10 @@
         <v>1237</v>
       </c>
       <c r="H438" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I438" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16309,10 +16312,10 @@
         <v>1238</v>
       </c>
       <c r="H439" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I439" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16335,10 +16338,10 @@
         <v>1239</v>
       </c>
       <c r="H440" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I440" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16361,10 +16364,10 @@
         <v>1240</v>
       </c>
       <c r="H441" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I441" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16387,10 +16390,10 @@
         <v>1241</v>
       </c>
       <c r="H442" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I442" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16413,10 +16416,10 @@
         <v>1242</v>
       </c>
       <c r="H443" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I443" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16439,10 +16442,10 @@
         <v>1243</v>
       </c>
       <c r="H444" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I444" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16465,10 +16468,10 @@
         <v>1244</v>
       </c>
       <c r="H445" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I445" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16491,10 +16494,10 @@
         <v>1245</v>
       </c>
       <c r="H446" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I446" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16517,10 +16520,10 @@
         <v>1246</v>
       </c>
       <c r="H447" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I447" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16543,10 +16546,10 @@
         <v>1247</v>
       </c>
       <c r="H448" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I448" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16569,10 +16572,10 @@
         <v>1248</v>
       </c>
       <c r="H449" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I449" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16595,10 +16598,10 @@
         <v>1249</v>
       </c>
       <c r="H450" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I450" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16621,10 +16624,10 @@
         <v>1250</v>
       </c>
       <c r="H451" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I451" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16647,16 +16650,16 @@
         <v>1251</v>
       </c>
       <c r="H452" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I452" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="K452" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="L452" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16679,10 +16682,10 @@
         <v>1252</v>
       </c>
       <c r="H453" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I453" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16705,10 +16708,10 @@
         <v>1253</v>
       </c>
       <c r="H454" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I454" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16731,16 +16734,16 @@
         <v>1254</v>
       </c>
       <c r="H455" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I455" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K455" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L455" t="s">
         <v>1421</v>
-      </c>
-      <c r="K455" t="s">
-        <v>1399</v>
-      </c>
-      <c r="L455" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16763,22 +16766,22 @@
         <v>1255</v>
       </c>
       <c r="H456" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I456" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K456" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L456" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M456" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N456" t="s">
         <v>1421</v>
-      </c>
-      <c r="K456" t="s">
-        <v>1397</v>
-      </c>
-      <c r="L456" t="s">
-        <v>1422</v>
-      </c>
-      <c r="M456" t="s">
-        <v>1399</v>
-      </c>
-      <c r="N456" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16801,10 +16804,10 @@
         <v>976</v>
       </c>
       <c r="H457" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I457" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16827,10 +16830,10 @@
         <v>1256</v>
       </c>
       <c r="H458" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I458" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16853,10 +16856,10 @@
         <v>1257</v>
       </c>
       <c r="H459" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I459" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16879,16 +16882,16 @@
         <v>1258</v>
       </c>
       <c r="H460" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I460" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="K460" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="L460" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16911,10 +16914,10 @@
         <v>966</v>
       </c>
       <c r="H461" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I461" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16937,10 +16940,10 @@
         <v>1210</v>
       </c>
       <c r="H462" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I462" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16963,10 +16966,10 @@
         <v>1044</v>
       </c>
       <c r="H463" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I463" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -16989,10 +16992,10 @@
         <v>1169</v>
       </c>
       <c r="H464" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I464" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17015,10 +17018,10 @@
         <v>976</v>
       </c>
       <c r="H465" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I465" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17041,10 +17044,10 @@
         <v>976</v>
       </c>
       <c r="H466" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I466" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17067,10 +17070,10 @@
         <v>966</v>
       </c>
       <c r="H467" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I467" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17093,10 +17096,10 @@
         <v>1103</v>
       </c>
       <c r="H468" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I468" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -17119,10 +17122,10 @@
         <v>976</v>
       </c>
       <c r="H469" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I469" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -17145,10 +17148,10 @@
         <v>1259</v>
       </c>
       <c r="H470" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I470" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -17171,10 +17174,10 @@
         <v>1260</v>
       </c>
       <c r="H471" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I471" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -17197,10 +17200,10 @@
         <v>1261</v>
       </c>
       <c r="H472" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I472" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -17223,10 +17226,10 @@
         <v>1262</v>
       </c>
       <c r="H473" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I473" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -17249,10 +17252,10 @@
         <v>1263</v>
       </c>
       <c r="H474" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I474" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -17275,10 +17278,10 @@
         <v>976</v>
       </c>
       <c r="H475" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I475" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -17301,10 +17304,10 @@
         <v>976</v>
       </c>
       <c r="H476" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I476" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1920_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1920_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02629459-567E-4F77-A9B7-D20EC30E0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6235D2-2DC5-4D02-BF08-0FC56F929127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1759,9 +1759,6 @@
     <t>Pharmakotherapie.</t>
   </si>
   <si>
-    <t>Rezeptier- und Dispensierkurs. Gruppenweise je ca. 4 Teilnehmer für 1 Woche</t>
-  </si>
-  <si>
     <t>Arbeiten im pharmakologischen Institut.</t>
   </si>
   <si>
@@ -3121,9 +3118,6 @@
     <t>Di. u. Do. 4-5.</t>
   </si>
   <si>
-    <t>täglich 8-10:30.</t>
-  </si>
-  <si>
     <t>Täglich vor- und nachmittags, ausgenommen Samstag nachmittag</t>
   </si>
   <si>
@@ -3910,12 +3904,6 @@
     <t>vonwiller_p</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>minkowski_m</t>
   </si>
   <si>
@@ -3976,9 +3964,6 @@
     <t>wyder_t</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4337,6 +4322,21 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>Rezeptier- und Dispensierkurs.</t>
+  </si>
+  <si>
+    <t>Gruppenweise je ca. 4 Teilnehmer für 1 Woche täglich 8-10:30.</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
   </si>
 </sst>
 </file>
@@ -4372,8 +4372,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4680,8 +4683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4708,13 +4711,13 @@
         <v>485</v>
       </c>
       <c r="G1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I1" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4734,13 +4737,13 @@
         <v>486</v>
       </c>
       <c r="G2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I2" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4760,13 +4763,13 @@
         <v>487</v>
       </c>
       <c r="G3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H3" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="I3" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4786,13 +4789,13 @@
         <v>488</v>
       </c>
       <c r="G4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H4" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="I4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,13 +4815,13 @@
         <v>489</v>
       </c>
       <c r="G5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H5" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="I5" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4838,13 +4841,13 @@
         <v>490</v>
       </c>
       <c r="G6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I6" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4864,13 +4867,13 @@
         <v>491</v>
       </c>
       <c r="G7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H7" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I7" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4890,13 +4893,13 @@
         <v>492</v>
       </c>
       <c r="G8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H8" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I8" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4916,16 +4919,16 @@
         <v>493</v>
       </c>
       <c r="G9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I9" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J9" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4945,13 +4948,13 @@
         <v>494</v>
       </c>
       <c r="G10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H10" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I10" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4971,16 +4974,16 @@
         <v>495</v>
       </c>
       <c r="G11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H11" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I11" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J11" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,13 +5003,13 @@
         <v>496</v>
       </c>
       <c r="G12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H12" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="I12" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,13 +5029,13 @@
         <v>497</v>
       </c>
       <c r="G13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H13" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I13" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5052,13 +5055,13 @@
         <v>498</v>
       </c>
       <c r="G14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H14" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I14" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,13 +5081,13 @@
         <v>499</v>
       </c>
       <c r="G15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H15" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I15" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5104,13 +5107,13 @@
         <v>500</v>
       </c>
       <c r="G16" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H16" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I16" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,13 +5133,13 @@
         <v>501</v>
       </c>
       <c r="G17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H17" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I17" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5156,13 +5159,13 @@
         <v>502</v>
       </c>
       <c r="G18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H18" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I18" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5182,16 +5185,16 @@
         <v>503</v>
       </c>
       <c r="G19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H19" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I19" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J19" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5211,13 +5214,13 @@
         <v>504</v>
       </c>
       <c r="G20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I20" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5237,13 +5240,13 @@
         <v>505</v>
       </c>
       <c r="G21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I21" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5263,13 +5266,13 @@
         <v>506</v>
       </c>
       <c r="G22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H22" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I22" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5289,13 +5292,13 @@
         <v>507</v>
       </c>
       <c r="G23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H23" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I23" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5315,13 +5318,13 @@
         <v>508</v>
       </c>
       <c r="G24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H24" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I24" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5341,13 +5344,13 @@
         <v>509</v>
       </c>
       <c r="G25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H25" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I25" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5367,13 +5370,13 @@
         <v>510</v>
       </c>
       <c r="G26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H26" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I26" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5393,16 +5396,16 @@
         <v>511</v>
       </c>
       <c r="G27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H27" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I27" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J27" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5422,13 +5425,13 @@
         <v>512</v>
       </c>
       <c r="G28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H28" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I28" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5448,7 +5451,7 @@
         <v>513</v>
       </c>
       <c r="H29" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5468,13 +5471,13 @@
         <v>514</v>
       </c>
       <c r="G30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H30" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I30" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5494,13 +5497,13 @@
         <v>515</v>
       </c>
       <c r="G31" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H31" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I31" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5520,13 +5523,13 @@
         <v>516</v>
       </c>
       <c r="G32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H32" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I32" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5546,13 +5549,13 @@
         <v>517</v>
       </c>
       <c r="G33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H33" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="I33" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5572,13 +5575,13 @@
         <v>518</v>
       </c>
       <c r="G34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H34" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="I34" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5598,13 +5601,13 @@
         <v>519</v>
       </c>
       <c r="G35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H35" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I35" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,13 +5627,13 @@
         <v>520</v>
       </c>
       <c r="G36" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I36" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5650,13 +5653,13 @@
         <v>521</v>
       </c>
       <c r="G37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H37" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I37" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5676,13 +5679,13 @@
         <v>522</v>
       </c>
       <c r="G38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I38" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5702,13 +5705,13 @@
         <v>523</v>
       </c>
       <c r="G39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H39" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I39" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5728,13 +5731,13 @@
         <v>524</v>
       </c>
       <c r="G40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H40" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I40" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5754,13 +5757,13 @@
         <v>525</v>
       </c>
       <c r="G41" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H41" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I41" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5780,13 +5783,13 @@
         <v>526</v>
       </c>
       <c r="G42" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H42" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="I42" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5806,13 +5809,13 @@
         <v>527</v>
       </c>
       <c r="G43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H43" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I43" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5832,13 +5835,13 @@
         <v>528</v>
       </c>
       <c r="G44" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H44" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I44" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5858,13 +5861,13 @@
         <v>529</v>
       </c>
       <c r="G45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I45" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5884,13 +5887,13 @@
         <v>530</v>
       </c>
       <c r="G46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H46" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I46" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5910,13 +5913,13 @@
         <v>531</v>
       </c>
       <c r="G47" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I47" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5936,13 +5939,13 @@
         <v>532</v>
       </c>
       <c r="G48" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H48" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I48" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5962,13 +5965,13 @@
         <v>533</v>
       </c>
       <c r="G49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H49" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I49" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5988,13 +5991,13 @@
         <v>534</v>
       </c>
       <c r="G50" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H50" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I50" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6014,16 +6017,16 @@
         <v>535</v>
       </c>
       <c r="G51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H51" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I51" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J51" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6043,13 +6046,13 @@
         <v>536</v>
       </c>
       <c r="G52" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H52" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I52" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,13 +6072,13 @@
         <v>537</v>
       </c>
       <c r="G53" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H53" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I53" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,13 +6098,13 @@
         <v>538</v>
       </c>
       <c r="G54" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H54" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="I54" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6121,13 +6124,13 @@
         <v>539</v>
       </c>
       <c r="G55" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H55" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="I55" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6147,13 +6150,13 @@
         <v>540</v>
       </c>
       <c r="G56" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H56" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I56" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6173,13 +6176,13 @@
         <v>541</v>
       </c>
       <c r="G57" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H57" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I57" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,13 +6202,13 @@
         <v>542</v>
       </c>
       <c r="G58" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H58" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="I58" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6225,13 +6228,13 @@
         <v>543</v>
       </c>
       <c r="G59" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H59" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I59" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6251,13 +6254,13 @@
         <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H60" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I60" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6277,13 +6280,13 @@
         <v>545</v>
       </c>
       <c r="G61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H61" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I61" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6303,13 +6306,13 @@
         <v>546</v>
       </c>
       <c r="G62" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H62" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I62" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6329,13 +6332,13 @@
         <v>547</v>
       </c>
       <c r="G63" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H63" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I63" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6355,13 +6358,13 @@
         <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H64" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="I64" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6381,13 +6384,13 @@
         <v>549</v>
       </c>
       <c r="G65" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H65" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I65" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6407,13 +6410,13 @@
         <v>550</v>
       </c>
       <c r="G66" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H66" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I66" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6433,16 +6436,16 @@
         <v>551</v>
       </c>
       <c r="G67" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H67" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I67" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J67" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6462,16 +6465,16 @@
         <v>552</v>
       </c>
       <c r="G68" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H68" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I68" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J68" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6491,13 +6494,13 @@
         <v>550</v>
       </c>
       <c r="G69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H69" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I69" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6517,13 +6520,13 @@
         <v>553</v>
       </c>
       <c r="G70" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H70" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I70" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6543,19 +6546,19 @@
         <v>554</v>
       </c>
       <c r="G71" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H71" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I71" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="K71" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="L71" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6575,13 +6578,13 @@
         <v>555</v>
       </c>
       <c r="G72" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H72" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I72" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6601,13 +6604,13 @@
         <v>556</v>
       </c>
       <c r="G73" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H73" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I73" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6627,13 +6630,13 @@
         <v>557</v>
       </c>
       <c r="G74" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H74" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I74" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6653,13 +6656,13 @@
         <v>558</v>
       </c>
       <c r="G75" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H75" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I75" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6679,13 +6682,13 @@
         <v>559</v>
       </c>
       <c r="G76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H76" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="I76" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6708,13 +6711,13 @@
         <v>560</v>
       </c>
       <c r="G77" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H77" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I77" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6734,13 +6737,13 @@
         <v>561</v>
       </c>
       <c r="G78" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H78" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I78" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6760,25 +6763,25 @@
         <v>562</v>
       </c>
       <c r="G79" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H79" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I79" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K79" t="s">
-        <v>1296</v>
+        <v>1434</v>
       </c>
       <c r="L79" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="M79" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="N79" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6798,13 +6801,13 @@
         <v>563</v>
       </c>
       <c r="G80" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H80" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I80" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6827,13 +6830,13 @@
         <v>564</v>
       </c>
       <c r="G81" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H81" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I81" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6853,13 +6856,13 @@
         <v>565</v>
       </c>
       <c r="G82" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H82" t="s">
-        <v>1296</v>
+        <v>1434</v>
       </c>
       <c r="I82" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6879,13 +6882,13 @@
         <v>566</v>
       </c>
       <c r="G83" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H83" t="s">
-        <v>1297</v>
+        <v>1438</v>
       </c>
       <c r="I83" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6905,13 +6908,13 @@
         <v>567</v>
       </c>
       <c r="G84" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H84" t="s">
-        <v>1297</v>
+        <v>1438</v>
       </c>
       <c r="I84" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6931,13 +6934,13 @@
         <v>568</v>
       </c>
       <c r="G85" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H85" t="s">
-        <v>1297</v>
+        <v>1438</v>
       </c>
       <c r="I85" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6957,13 +6960,13 @@
         <v>569</v>
       </c>
       <c r="G86" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H86" t="s">
-        <v>1297</v>
+        <v>1438</v>
       </c>
       <c r="I86" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6983,13 +6986,13 @@
         <v>570</v>
       </c>
       <c r="G87" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H87" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I87" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -7009,13 +7012,13 @@
         <v>571</v>
       </c>
       <c r="G88" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H88" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I88" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -7035,13 +7038,13 @@
         <v>572</v>
       </c>
       <c r="G89" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H89" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I89" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -7061,13 +7064,13 @@
         <v>573</v>
       </c>
       <c r="G90" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H90" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I90" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -7087,13 +7090,13 @@
         <v>574</v>
       </c>
       <c r="G91" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H91" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I91" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -7113,13 +7116,13 @@
         <v>575</v>
       </c>
       <c r="G92" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H92" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I92" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -7139,13 +7142,13 @@
         <v>576</v>
       </c>
       <c r="G93" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H93" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I93" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -7165,13 +7168,13 @@
         <v>577</v>
       </c>
       <c r="G94" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H94" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I94" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -7191,13 +7194,13 @@
         <v>578</v>
       </c>
       <c r="G95" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H95" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I95" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -7214,22 +7217,22 @@
         <v>481</v>
       </c>
       <c r="F96" t="s">
-        <v>579</v>
+        <v>1436</v>
       </c>
       <c r="G96" t="s">
-        <v>1033</v>
+        <v>1437</v>
       </c>
       <c r="H96" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I96" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K96" t="s">
         <v>1418</v>
       </c>
-      <c r="K96" t="s">
-        <v>1423</v>
-      </c>
       <c r="L96" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -7246,16 +7249,16 @@
         <v>481</v>
       </c>
       <c r="F97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G97" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H97" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I97" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7272,16 +7275,16 @@
         <v>481</v>
       </c>
       <c r="F98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G98" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H98" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I98" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7298,16 +7301,16 @@
         <v>481</v>
       </c>
       <c r="F99" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G99" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H99" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I99" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7324,16 +7327,16 @@
         <v>481</v>
       </c>
       <c r="F100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H100" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I100" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7350,16 +7353,16 @@
         <v>481</v>
       </c>
       <c r="F101" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G101" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H101" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="I101" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7376,16 +7379,16 @@
         <v>481</v>
       </c>
       <c r="F102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G102" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H102" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="I102" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7402,16 +7405,16 @@
         <v>481</v>
       </c>
       <c r="F103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G103" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H103" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="I103" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7428,19 +7431,19 @@
         <v>481</v>
       </c>
       <c r="F104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G104" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H104" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I104" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J104" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7457,19 +7460,19 @@
         <v>481</v>
       </c>
       <c r="F105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G105" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H105" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I105" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J105" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7486,19 +7489,19 @@
         <v>481</v>
       </c>
       <c r="F106" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G106" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H106" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I106" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J106" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7515,16 +7518,16 @@
         <v>481</v>
       </c>
       <c r="F107" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G107" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H107" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="I107" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7541,16 +7544,16 @@
         <v>481</v>
       </c>
       <c r="F108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G108" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H108" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I108" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7567,16 +7570,16 @@
         <v>481</v>
       </c>
       <c r="F109" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G109" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H109" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I109" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7593,16 +7596,16 @@
         <v>481</v>
       </c>
       <c r="F110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G110" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H110" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I110" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7619,16 +7622,16 @@
         <v>481</v>
       </c>
       <c r="F111" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G111" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H111" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I111" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7645,16 +7648,16 @@
         <v>481</v>
       </c>
       <c r="F112" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G112" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H112" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I112" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7671,16 +7674,16 @@
         <v>481</v>
       </c>
       <c r="F113" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G113" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H113" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I113" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7697,16 +7700,16 @@
         <v>481</v>
       </c>
       <c r="F114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G114" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H114" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I114" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7723,16 +7726,16 @@
         <v>481</v>
       </c>
       <c r="F115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G115" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H115" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I115" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7749,16 +7752,16 @@
         <v>481</v>
       </c>
       <c r="F116" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G116" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H116" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I116" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7775,16 +7778,16 @@
         <v>481</v>
       </c>
       <c r="F117" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G117" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H117" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I117" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7801,16 +7804,16 @@
         <v>481</v>
       </c>
       <c r="F118" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G118" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H118" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="I118" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7827,22 +7830,22 @@
         <v>481</v>
       </c>
       <c r="F119" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G119" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H119" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="I119" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K119" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="L119" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7859,22 +7862,22 @@
         <v>481</v>
       </c>
       <c r="F120" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G120" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H120" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="I120" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K120" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L120" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7891,16 +7894,16 @@
         <v>481</v>
       </c>
       <c r="F121" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G121" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H121" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="I121" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7917,16 +7920,16 @@
         <v>481</v>
       </c>
       <c r="F122" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G122" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H122" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I122" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7943,16 +7946,16 @@
         <v>481</v>
       </c>
       <c r="F123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G123" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H123" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I123" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7969,16 +7972,16 @@
         <v>481</v>
       </c>
       <c r="F124" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G124" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H124" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I124" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7995,16 +7998,16 @@
         <v>481</v>
       </c>
       <c r="F125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G125" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H125" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I125" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8021,16 +8024,16 @@
         <v>481</v>
       </c>
       <c r="F126" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G126" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H126" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I126" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8047,16 +8050,16 @@
         <v>481</v>
       </c>
       <c r="F127" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G127" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H127" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I127" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8073,16 +8076,16 @@
         <v>481</v>
       </c>
       <c r="F128" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G128" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H128" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I128" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8099,16 +8102,16 @@
         <v>481</v>
       </c>
       <c r="F129" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G129" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H129" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I129" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8125,16 +8128,16 @@
         <v>481</v>
       </c>
       <c r="F130" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G130" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H130" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I130" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8151,16 +8154,16 @@
         <v>481</v>
       </c>
       <c r="F131" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G131" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H131" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I131" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8177,16 +8180,16 @@
         <v>481</v>
       </c>
       <c r="F132" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G132" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H132" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I132" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8203,16 +8206,16 @@
         <v>481</v>
       </c>
       <c r="F133" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G133" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H133" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I133" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8229,16 +8232,16 @@
         <v>481</v>
       </c>
       <c r="F134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G134" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H134" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I134" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8255,16 +8258,16 @@
         <v>481</v>
       </c>
       <c r="F135" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G135" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H135" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I135" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8281,16 +8284,16 @@
         <v>481</v>
       </c>
       <c r="F136" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G136" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1318</v>
+        <v>1059</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>1435</v>
       </c>
       <c r="I136" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8307,16 +8310,16 @@
         <v>481</v>
       </c>
       <c r="F137" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G137" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1318</v>
+        <v>1060</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>1435</v>
       </c>
       <c r="I137" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8333,16 +8336,16 @@
         <v>481</v>
       </c>
       <c r="F138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G138" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H138" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I138" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8359,16 +8362,16 @@
         <v>481</v>
       </c>
       <c r="F139" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G139" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H139" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="I139" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8385,16 +8388,16 @@
         <v>481</v>
       </c>
       <c r="F140" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G140" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H140" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="I140" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8411,16 +8414,16 @@
         <v>481</v>
       </c>
       <c r="F141" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G141" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H141" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="I141" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8437,16 +8440,16 @@
         <v>481</v>
       </c>
       <c r="F142" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G142" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H142" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="I142" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8463,16 +8466,16 @@
         <v>481</v>
       </c>
       <c r="F143" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G143" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H143" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="I143" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8489,16 +8492,16 @@
         <v>481</v>
       </c>
       <c r="F144" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G144" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H144" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I144" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8515,16 +8518,16 @@
         <v>481</v>
       </c>
       <c r="F145" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G145" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H145" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I145" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8541,16 +8544,16 @@
         <v>481</v>
       </c>
       <c r="F146" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G146" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H146" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="I146" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8567,16 +8570,16 @@
         <v>481</v>
       </c>
       <c r="F147" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G147" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H147" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="I147" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8593,16 +8596,16 @@
         <v>481</v>
       </c>
       <c r="F148" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G148" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H148" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I148" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8619,16 +8622,16 @@
         <v>481</v>
       </c>
       <c r="F149" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G149" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H149" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I149" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8645,16 +8648,16 @@
         <v>481</v>
       </c>
       <c r="F150" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G150" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H150" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I150" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8671,16 +8674,16 @@
         <v>481</v>
       </c>
       <c r="F151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G151" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H151" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="I151" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8697,16 +8700,16 @@
         <v>481</v>
       </c>
       <c r="F152" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G152" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H152" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="I152" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8723,16 +8726,16 @@
         <v>481</v>
       </c>
       <c r="F153" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G153" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H153" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="I153" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8749,16 +8752,16 @@
         <v>481</v>
       </c>
       <c r="F154" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G154" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H154" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I154" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8775,16 +8778,16 @@
         <v>481</v>
       </c>
       <c r="F155" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G155" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H155" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I155" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8801,16 +8804,16 @@
         <v>481</v>
       </c>
       <c r="F156" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G156" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H156" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I156" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8827,22 +8830,22 @@
         <v>481</v>
       </c>
       <c r="F157" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G157" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H157" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I157" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K157" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="L157" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8859,16 +8862,16 @@
         <v>481</v>
       </c>
       <c r="F158" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G158" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H158" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I158" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8885,16 +8888,16 @@
         <v>481</v>
       </c>
       <c r="F159" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G159" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H159" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="I159" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8911,16 +8914,16 @@
         <v>481</v>
       </c>
       <c r="F160" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G160" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H160" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="I160" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8937,16 +8940,16 @@
         <v>481</v>
       </c>
       <c r="F161" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G161" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H161" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I161" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8963,16 +8966,16 @@
         <v>481</v>
       </c>
       <c r="F162" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G162" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H162" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I162" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8989,16 +8992,16 @@
         <v>481</v>
       </c>
       <c r="F163" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G163" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H163" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I163" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9015,16 +9018,16 @@
         <v>481</v>
       </c>
       <c r="F164" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G164" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H164" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I164" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9041,16 +9044,16 @@
         <v>481</v>
       </c>
       <c r="F165" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G165" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H165" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I165" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9067,16 +9070,16 @@
         <v>481</v>
       </c>
       <c r="F166" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G166" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H166" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="I166" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9093,16 +9096,16 @@
         <v>481</v>
       </c>
       <c r="F167" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G167" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H167" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="I167" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9119,16 +9122,16 @@
         <v>481</v>
       </c>
       <c r="F168" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G168" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H168" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="I168" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9145,16 +9148,16 @@
         <v>481</v>
       </c>
       <c r="F169" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G169" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H169" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="I169" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9171,16 +9174,16 @@
         <v>481</v>
       </c>
       <c r="F170" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G170" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H170" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="I170" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,16 +9200,16 @@
         <v>481</v>
       </c>
       <c r="F171" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G171" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H171" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I171" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9223,16 +9226,16 @@
         <v>481</v>
       </c>
       <c r="F172" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G172" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H172" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I172" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9249,16 +9252,16 @@
         <v>481</v>
       </c>
       <c r="F173" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G173" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H173" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I173" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9275,16 +9278,16 @@
         <v>481</v>
       </c>
       <c r="F174" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G174" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H174" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I174" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,16 +9304,16 @@
         <v>481</v>
       </c>
       <c r="F175" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H175" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I175" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9327,16 +9330,16 @@
         <v>481</v>
       </c>
       <c r="F176" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G176" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H176" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I176" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,16 +9356,16 @@
         <v>481</v>
       </c>
       <c r="F177" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G177" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H177" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I177" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9379,16 +9382,16 @@
         <v>481</v>
       </c>
       <c r="F178" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G178" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H178" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I178" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9405,16 +9408,16 @@
         <v>481</v>
       </c>
       <c r="F179" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G179" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H179" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I179" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9431,16 +9434,16 @@
         <v>481</v>
       </c>
       <c r="F180" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G180" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H180" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I180" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9457,16 +9460,16 @@
         <v>481</v>
       </c>
       <c r="F181" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G181" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H181" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I181" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9483,16 +9486,16 @@
         <v>481</v>
       </c>
       <c r="F182" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G182" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H182" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I182" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9509,16 +9512,16 @@
         <v>482</v>
       </c>
       <c r="F183" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G183" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H183" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I183" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9535,16 +9538,16 @@
         <v>482</v>
       </c>
       <c r="F184" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G184" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H184" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I184" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9561,16 +9564,16 @@
         <v>482</v>
       </c>
       <c r="F185" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G185" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H185" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I185" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9587,16 +9590,16 @@
         <v>482</v>
       </c>
       <c r="F186" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G186" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H186" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I186" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9613,16 +9616,16 @@
         <v>482</v>
       </c>
       <c r="F187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G187" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H187" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I187" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9639,16 +9642,16 @@
         <v>482</v>
       </c>
       <c r="F188" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G188" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H188" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I188" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9665,16 +9668,16 @@
         <v>482</v>
       </c>
       <c r="F189" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G189" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H189" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I189" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9691,16 +9694,16 @@
         <v>482</v>
       </c>
       <c r="F190" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G190" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H190" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I190" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9717,16 +9720,16 @@
         <v>482</v>
       </c>
       <c r="F191" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G191" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H191" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I191" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9743,16 +9746,16 @@
         <v>482</v>
       </c>
       <c r="F192" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G192" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H192" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I192" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9769,16 +9772,16 @@
         <v>482</v>
       </c>
       <c r="F193" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G193" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H193" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I193" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9795,16 +9798,16 @@
         <v>482</v>
       </c>
       <c r="F194" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G194" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H194" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I194" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9821,16 +9824,16 @@
         <v>482</v>
       </c>
       <c r="F195" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G195" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H195" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I195" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9847,16 +9850,16 @@
         <v>482</v>
       </c>
       <c r="F196" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G196" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H196" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I196" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9873,16 +9876,16 @@
         <v>482</v>
       </c>
       <c r="F197" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G197" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H197" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I197" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9899,16 +9902,16 @@
         <v>482</v>
       </c>
       <c r="F198" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G198" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H198" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I198" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9925,16 +9928,16 @@
         <v>482</v>
       </c>
       <c r="F199" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G199" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H199" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I199" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9951,16 +9954,16 @@
         <v>482</v>
       </c>
       <c r="F200" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G200" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H200" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I200" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9977,16 +9980,16 @@
         <v>482</v>
       </c>
       <c r="F201" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G201" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H201" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I201" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -10003,16 +10006,16 @@
         <v>482</v>
       </c>
       <c r="F202" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G202" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H202" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I202" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -10029,16 +10032,16 @@
         <v>482</v>
       </c>
       <c r="F203" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G203" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H203" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I203" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -10055,16 +10058,16 @@
         <v>482</v>
       </c>
       <c r="F204" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G204" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H204" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I204" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -10081,19 +10084,19 @@
         <v>482</v>
       </c>
       <c r="F205" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G205" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H205" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I205" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J205" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -10110,19 +10113,19 @@
         <v>482</v>
       </c>
       <c r="F206" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G206" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H206" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I206" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J206" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -10139,19 +10142,19 @@
         <v>482</v>
       </c>
       <c r="F207" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G207" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H207" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I207" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J207" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -10168,19 +10171,19 @@
         <v>482</v>
       </c>
       <c r="F208" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G208" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H208" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I208" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J208" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10197,19 +10200,19 @@
         <v>482</v>
       </c>
       <c r="F209" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G209" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H209" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I209" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J209" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10226,16 +10229,16 @@
         <v>482</v>
       </c>
       <c r="F210" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G210" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H210" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I210" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10252,16 +10255,16 @@
         <v>482</v>
       </c>
       <c r="F211" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G211" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H211" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I211" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10278,16 +10281,16 @@
         <v>482</v>
       </c>
       <c r="F212" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G212" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H212" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I212" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10304,16 +10307,16 @@
         <v>482</v>
       </c>
       <c r="F213" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G213" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H213" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I213" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10330,16 +10333,16 @@
         <v>482</v>
       </c>
       <c r="F214" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G214" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H214" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I214" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10356,16 +10359,16 @@
         <v>482</v>
       </c>
       <c r="F215" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G215" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H215" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I215" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10382,16 +10385,16 @@
         <v>482</v>
       </c>
       <c r="F216" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G216" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H216" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I216" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10408,16 +10411,16 @@
         <v>482</v>
       </c>
       <c r="F217" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G217" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H217" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I217" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10434,16 +10437,16 @@
         <v>482</v>
       </c>
       <c r="F218" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G218" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H218" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="I218" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10460,16 +10463,16 @@
         <v>482</v>
       </c>
       <c r="F219" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G219" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H219" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="I219" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10486,16 +10489,16 @@
         <v>482</v>
       </c>
       <c r="F220" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G220" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H220" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="I220" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10512,16 +10515,16 @@
         <v>482</v>
       </c>
       <c r="F221" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G221" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H221" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="I221" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10538,16 +10541,16 @@
         <v>483</v>
       </c>
       <c r="F222" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G222" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H222" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I222" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10564,16 +10567,16 @@
         <v>483</v>
       </c>
       <c r="F223" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G223" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H223" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I223" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10590,16 +10593,16 @@
         <v>483</v>
       </c>
       <c r="F224" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G224" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H224" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I224" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10616,16 +10619,16 @@
         <v>483</v>
       </c>
       <c r="F225" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G225" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H225" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I225" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10642,16 +10645,16 @@
         <v>483</v>
       </c>
       <c r="F226" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G226" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H226" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I226" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10668,16 +10671,16 @@
         <v>483</v>
       </c>
       <c r="F227" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G227" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H227" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I227" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10694,16 +10697,16 @@
         <v>483</v>
       </c>
       <c r="F228" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G228" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H228" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I228" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10720,16 +10723,16 @@
         <v>483</v>
       </c>
       <c r="F229" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G229" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H229" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="I229" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10746,16 +10749,16 @@
         <v>483</v>
       </c>
       <c r="F230" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G230" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H230" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I230" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10772,16 +10775,16 @@
         <v>483</v>
       </c>
       <c r="F231" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G231" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H231" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="I231" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10801,13 +10804,13 @@
         <v>502</v>
       </c>
       <c r="G232" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H232" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I232" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10824,16 +10827,16 @@
         <v>483</v>
       </c>
       <c r="F233" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G233" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H233" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I233" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10850,16 +10853,16 @@
         <v>483</v>
       </c>
       <c r="F234" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G234" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H234" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I234" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10876,16 +10879,16 @@
         <v>483</v>
       </c>
       <c r="F235" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G235" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H235" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="I235" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10902,16 +10905,16 @@
         <v>483</v>
       </c>
       <c r="F236" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G236" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H236" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="I236" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10928,16 +10931,16 @@
         <v>483</v>
       </c>
       <c r="F237" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G237" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H237" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I237" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10954,16 +10957,16 @@
         <v>483</v>
       </c>
       <c r="F238" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G238" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H238" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I238" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10980,16 +10983,16 @@
         <v>483</v>
       </c>
       <c r="F239" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G239" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H239" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I239" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11006,16 +11009,16 @@
         <v>483</v>
       </c>
       <c r="F240" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G240" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H240" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I240" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11032,16 +11035,16 @@
         <v>483</v>
       </c>
       <c r="F241" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G241" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H241" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I241" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11058,16 +11061,16 @@
         <v>483</v>
       </c>
       <c r="F242" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G242" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H242" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I242" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11084,16 +11087,16 @@
         <v>483</v>
       </c>
       <c r="F243" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G243" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H243" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I243" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11110,16 +11113,16 @@
         <v>483</v>
       </c>
       <c r="F244" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G244" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H244" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I244" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11136,16 +11139,16 @@
         <v>483</v>
       </c>
       <c r="F245" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G245" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H245" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I245" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11162,16 +11165,16 @@
         <v>483</v>
       </c>
       <c r="F246" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G246" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H246" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="I246" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11188,16 +11191,16 @@
         <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G247" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H247" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I247" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11214,16 +11217,16 @@
         <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G248" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H248" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I248" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11240,16 +11243,16 @@
         <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G249" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H249" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I249" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11266,16 +11269,16 @@
         <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G250" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H250" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I250" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11292,16 +11295,16 @@
         <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G251" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H251" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I251" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11318,16 +11321,16 @@
         <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G252" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H252" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I252" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11344,16 +11347,16 @@
         <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G253" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H253" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I253" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11370,16 +11373,16 @@
         <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G254" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H254" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I254" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11396,16 +11399,16 @@
         <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G255" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H255" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I255" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11422,16 +11425,16 @@
         <v>483</v>
       </c>
       <c r="F256" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G256" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H256" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I256" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11448,16 +11451,16 @@
         <v>483</v>
       </c>
       <c r="F257" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G257" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H257" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I257" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11474,16 +11477,16 @@
         <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G258" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H258" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I258" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11500,16 +11503,16 @@
         <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G259" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H259" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I259" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11526,16 +11529,16 @@
         <v>483</v>
       </c>
       <c r="F260" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G260" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H260" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I260" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11552,16 +11555,16 @@
         <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G261" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H261" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I261" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11578,16 +11581,16 @@
         <v>483</v>
       </c>
       <c r="F262" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G262" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H262" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I262" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11604,16 +11607,16 @@
         <v>483</v>
       </c>
       <c r="F263" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G263" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H263" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I263" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11630,16 +11633,16 @@
         <v>483</v>
       </c>
       <c r="F264" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G264" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H264" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I264" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11656,16 +11659,16 @@
         <v>483</v>
       </c>
       <c r="F265" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G265" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H265" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I265" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11682,16 +11685,16 @@
         <v>483</v>
       </c>
       <c r="F266" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G266" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H266" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I266" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11708,16 +11711,16 @@
         <v>483</v>
       </c>
       <c r="F267" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G267" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H267" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I267" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11734,16 +11737,16 @@
         <v>483</v>
       </c>
       <c r="F268" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G268" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H268" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I268" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11760,16 +11763,16 @@
         <v>483</v>
       </c>
       <c r="F269" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G269" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H269" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I269" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11786,16 +11789,16 @@
         <v>483</v>
       </c>
       <c r="F270" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G270" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H270" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I270" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11815,13 +11818,13 @@
         <v>545</v>
       </c>
       <c r="G271" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H271" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I271" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11838,16 +11841,16 @@
         <v>483</v>
       </c>
       <c r="F272" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G272" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H272" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="I272" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11864,16 +11867,16 @@
         <v>483</v>
       </c>
       <c r="F273" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G273" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H273" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I273" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11890,16 +11893,16 @@
         <v>483</v>
       </c>
       <c r="F274" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G274" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H274" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I274" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11916,16 +11919,16 @@
         <v>483</v>
       </c>
       <c r="F275" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G275" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H275" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I275" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11942,16 +11945,16 @@
         <v>483</v>
       </c>
       <c r="F276" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G276" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H276" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I276" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11968,16 +11971,16 @@
         <v>483</v>
       </c>
       <c r="F277" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G277" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H277" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I277" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11994,16 +11997,16 @@
         <v>483</v>
       </c>
       <c r="F278" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G278" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H278" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I278" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12020,16 +12023,16 @@
         <v>483</v>
       </c>
       <c r="F279" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G279" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H279" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I279" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12046,16 +12049,16 @@
         <v>483</v>
       </c>
       <c r="F280" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G280" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H280" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I280" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12072,16 +12075,16 @@
         <v>483</v>
       </c>
       <c r="F281" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G281" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H281" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I281" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12098,16 +12101,16 @@
         <v>483</v>
       </c>
       <c r="F282" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G282" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H282" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="I282" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12124,16 +12127,16 @@
         <v>483</v>
       </c>
       <c r="F283" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G283" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H283" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="I283" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12150,16 +12153,16 @@
         <v>483</v>
       </c>
       <c r="F284" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G284" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H284" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="I284" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12176,16 +12179,16 @@
         <v>483</v>
       </c>
       <c r="F285" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G285" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H285" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I285" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12202,16 +12205,16 @@
         <v>483</v>
       </c>
       <c r="F286" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G286" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H286" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I286" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12231,16 +12234,16 @@
         <v>483</v>
       </c>
       <c r="F287" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G287" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H287" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I287" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12257,16 +12260,16 @@
         <v>483</v>
       </c>
       <c r="F288" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G288" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H288" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I288" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12283,16 +12286,16 @@
         <v>483</v>
       </c>
       <c r="F289" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G289" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H289" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="I289" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12309,16 +12312,16 @@
         <v>483</v>
       </c>
       <c r="F290" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G290" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H290" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="I290" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12335,16 +12338,16 @@
         <v>483</v>
       </c>
       <c r="F291" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G291" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H291" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="I291" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12361,16 +12364,16 @@
         <v>483</v>
       </c>
       <c r="F292" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G292" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H292" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="I292" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12387,16 +12390,16 @@
         <v>483</v>
       </c>
       <c r="F293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G293" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H293" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I293" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12413,16 +12416,16 @@
         <v>483</v>
       </c>
       <c r="F294" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G294" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H294" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I294" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12439,16 +12442,16 @@
         <v>483</v>
       </c>
       <c r="F295" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G295" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H295" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I295" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12465,16 +12468,16 @@
         <v>483</v>
       </c>
       <c r="F296" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G296" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H296" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I296" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12491,16 +12494,16 @@
         <v>483</v>
       </c>
       <c r="F297" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G297" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H297" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="I297" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12517,16 +12520,16 @@
         <v>483</v>
       </c>
       <c r="F298" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G298" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H298" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I298" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12543,16 +12546,16 @@
         <v>483</v>
       </c>
       <c r="F299" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G299" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H299" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I299" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12572,16 +12575,16 @@
         <v>483</v>
       </c>
       <c r="F300" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G300" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H300" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I300" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12598,16 +12601,16 @@
         <v>483</v>
       </c>
       <c r="F301" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G301" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H301" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I301" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12624,16 +12627,16 @@
         <v>483</v>
       </c>
       <c r="F302" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G302" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H302" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I302" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12650,16 +12653,16 @@
         <v>483</v>
       </c>
       <c r="F303" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G303" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H303" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I303" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12676,16 +12679,16 @@
         <v>483</v>
       </c>
       <c r="F304" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G304" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H304" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I304" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12702,16 +12705,16 @@
         <v>483</v>
       </c>
       <c r="F305" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G305" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H305" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I305" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12728,16 +12731,16 @@
         <v>483</v>
       </c>
       <c r="F306" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G306" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H306" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I306" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12754,16 +12757,16 @@
         <v>483</v>
       </c>
       <c r="F307" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G307" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H307" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I307" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12780,16 +12783,16 @@
         <v>483</v>
       </c>
       <c r="F308" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G308" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H308" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I308" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12806,16 +12809,16 @@
         <v>483</v>
       </c>
       <c r="F309" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G309" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H309" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I309" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12832,16 +12835,16 @@
         <v>483</v>
       </c>
       <c r="F310" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G310" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H310" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I310" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12861,13 +12864,13 @@
         <v>558</v>
       </c>
       <c r="G311" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H311" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I311" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12884,16 +12887,16 @@
         <v>483</v>
       </c>
       <c r="F312" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G312" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H312" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="I312" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12910,16 +12913,16 @@
         <v>483</v>
       </c>
       <c r="F313" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G313" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H313" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="I313" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12936,16 +12939,16 @@
         <v>483</v>
       </c>
       <c r="F314" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G314" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H314" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I314" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12962,16 +12965,16 @@
         <v>483</v>
       </c>
       <c r="F315" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G315" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H315" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I315" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12988,16 +12991,16 @@
         <v>483</v>
       </c>
       <c r="F316" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G316" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H316" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I316" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13014,16 +13017,16 @@
         <v>483</v>
       </c>
       <c r="F317" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G317" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H317" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I317" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13040,16 +13043,16 @@
         <v>483</v>
       </c>
       <c r="F318" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G318" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="H318" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I318" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13066,16 +13069,16 @@
         <v>483</v>
       </c>
       <c r="F319" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G319" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H319" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="I319" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13092,16 +13095,16 @@
         <v>483</v>
       </c>
       <c r="F320" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G320" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H320" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="I320" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13118,16 +13121,16 @@
         <v>483</v>
       </c>
       <c r="F321" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G321" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H321" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="I321" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13144,16 +13147,16 @@
         <v>483</v>
       </c>
       <c r="F322" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G322" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H322" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="I322" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13170,16 +13173,16 @@
         <v>483</v>
       </c>
       <c r="F323" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G323" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H323" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="I323" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13196,16 +13199,16 @@
         <v>483</v>
       </c>
       <c r="F324" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G324" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H324" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="I324" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13222,16 +13225,16 @@
         <v>483</v>
       </c>
       <c r="F325" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G325" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H325" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I325" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13248,16 +13251,16 @@
         <v>483</v>
       </c>
       <c r="F326" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G326" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H326" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I326" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13274,16 +13277,16 @@
         <v>483</v>
       </c>
       <c r="F327" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G327" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H327" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I327" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13300,16 +13303,16 @@
         <v>483</v>
       </c>
       <c r="F328" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G328" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H328" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I328" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13326,16 +13329,16 @@
         <v>483</v>
       </c>
       <c r="F329" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G329" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H329" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="I329" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13352,16 +13355,16 @@
         <v>483</v>
       </c>
       <c r="F330" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G330" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H330" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="I330" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13378,16 +13381,16 @@
         <v>483</v>
       </c>
       <c r="F331" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G331" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H331" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="I331" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13404,16 +13407,16 @@
         <v>483</v>
       </c>
       <c r="F332" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G332" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H332" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="I332" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13430,16 +13433,16 @@
         <v>483</v>
       </c>
       <c r="F333" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G333" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H333" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I333" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13456,16 +13459,16 @@
         <v>483</v>
       </c>
       <c r="F334" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G334" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H334" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I334" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13482,16 +13485,16 @@
         <v>483</v>
       </c>
       <c r="F335" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G335" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H335" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I335" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13508,16 +13511,16 @@
         <v>483</v>
       </c>
       <c r="F336" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G336" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H336" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="I336" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13534,16 +13537,16 @@
         <v>483</v>
       </c>
       <c r="F337" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G337" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H337" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="I337" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13560,19 +13563,19 @@
         <v>483</v>
       </c>
       <c r="F338" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G338" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H338" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I338" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J338" t="s">
         <v>1419</v>
-      </c>
-      <c r="J338" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13589,16 +13592,16 @@
         <v>483</v>
       </c>
       <c r="F339" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G339" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H339" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I339" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13615,16 +13618,16 @@
         <v>483</v>
       </c>
       <c r="F340" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G340" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H340" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="I340" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13641,16 +13644,16 @@
         <v>483</v>
       </c>
       <c r="F341" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G341" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H341" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="I341" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13667,16 +13670,16 @@
         <v>483</v>
       </c>
       <c r="F342" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G342" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H342" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="I342" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13693,16 +13696,16 @@
         <v>483</v>
       </c>
       <c r="F343" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G343" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H343" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="I343" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13719,19 +13722,19 @@
         <v>483</v>
       </c>
       <c r="F344" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G344" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H344" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I344" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J344" t="s">
         <v>1419</v>
-      </c>
-      <c r="J344" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13748,16 +13751,16 @@
         <v>483</v>
       </c>
       <c r="F345" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G345" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H345" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I345" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13774,16 +13777,16 @@
         <v>483</v>
       </c>
       <c r="F346" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G346" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H346" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I346" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13800,16 +13803,16 @@
         <v>483</v>
       </c>
       <c r="F347" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G347" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H347" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I347" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13826,16 +13829,16 @@
         <v>483</v>
       </c>
       <c r="F348" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G348" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H348" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="I348" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13852,16 +13855,16 @@
         <v>483</v>
       </c>
       <c r="F349" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G349" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H349" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="I349" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13878,16 +13881,16 @@
         <v>483</v>
       </c>
       <c r="F350" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G350" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H350" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="I350" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13904,16 +13907,16 @@
         <v>483</v>
       </c>
       <c r="F351" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G351" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H351" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="I351" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13930,16 +13933,16 @@
         <v>483</v>
       </c>
       <c r="F352" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G352" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H352" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I352" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
@@ -13956,16 +13959,16 @@
         <v>483</v>
       </c>
       <c r="F353" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G353" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H353" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I353" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
@@ -13982,16 +13985,16 @@
         <v>483</v>
       </c>
       <c r="F354" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G354" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H354" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I354" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
@@ -14008,16 +14011,16 @@
         <v>483</v>
       </c>
       <c r="F355" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G355" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H355" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I355" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
@@ -14034,16 +14037,16 @@
         <v>483</v>
       </c>
       <c r="F356" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G356" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H356" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="I356" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
@@ -14060,16 +14063,16 @@
         <v>483</v>
       </c>
       <c r="F357" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G357" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H357" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="I357" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
@@ -14086,16 +14089,16 @@
         <v>483</v>
       </c>
       <c r="F358" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G358" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H358" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="I358" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
@@ -14112,16 +14115,16 @@
         <v>483</v>
       </c>
       <c r="F359" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G359" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H359" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="I359" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
@@ -14138,16 +14141,16 @@
         <v>483</v>
       </c>
       <c r="F360" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G360" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H360" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="I360" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
@@ -14164,16 +14167,16 @@
         <v>483</v>
       </c>
       <c r="F361" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G361" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H361" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="I361" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
@@ -14190,19 +14193,19 @@
         <v>484</v>
       </c>
       <c r="F362" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G362" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H362" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I362" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J362" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
@@ -14219,19 +14222,19 @@
         <v>484</v>
       </c>
       <c r="F363" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G363" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H363" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I363" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J363" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
@@ -14248,19 +14251,19 @@
         <v>484</v>
       </c>
       <c r="F364" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G364" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H364" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I364" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J364" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
@@ -14277,19 +14280,19 @@
         <v>484</v>
       </c>
       <c r="F365" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G365" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H365" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I365" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J365" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
@@ -14306,31 +14309,31 @@
         <v>484</v>
       </c>
       <c r="F366" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G366" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H366" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I366" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J366" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="K366" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="L366" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="M366" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="N366" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
@@ -14347,16 +14350,16 @@
         <v>484</v>
       </c>
       <c r="F367" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G367" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H367" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="I367" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
@@ -14373,16 +14376,16 @@
         <v>484</v>
       </c>
       <c r="F368" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G368" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H368" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="I368" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14399,16 +14402,16 @@
         <v>484</v>
       </c>
       <c r="F369" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G369" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H369" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="I369" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14425,16 +14428,16 @@
         <v>484</v>
       </c>
       <c r="F370" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G370" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H370" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I370" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14451,16 +14454,16 @@
         <v>484</v>
       </c>
       <c r="F371" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G371" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H371" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="I371" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14477,16 +14480,16 @@
         <v>484</v>
       </c>
       <c r="F372" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G372" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H372" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="I372" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14503,16 +14506,16 @@
         <v>484</v>
       </c>
       <c r="F373" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G373" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H373" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="I373" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14532,16 +14535,16 @@
         <v>484</v>
       </c>
       <c r="F374" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G374" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H374" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="I374" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14561,16 +14564,16 @@
         <v>484</v>
       </c>
       <c r="F375" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G375" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H375" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="I375" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14590,16 +14593,16 @@
         <v>484</v>
       </c>
       <c r="F376" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G376" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H376" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="I376" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14619,16 +14622,16 @@
         <v>484</v>
       </c>
       <c r="F377" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G377" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H377" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="I377" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14648,16 +14651,16 @@
         <v>484</v>
       </c>
       <c r="F378" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G378" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H378" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I378" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14674,16 +14677,16 @@
         <v>484</v>
       </c>
       <c r="F379" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G379" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H379" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I379" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14700,16 +14703,16 @@
         <v>484</v>
       </c>
       <c r="F380" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G380" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H380" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I380" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14726,16 +14729,16 @@
         <v>484</v>
       </c>
       <c r="F381" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G381" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H381" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I381" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14752,16 +14755,16 @@
         <v>484</v>
       </c>
       <c r="F382" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G382" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H382" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I382" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14778,16 +14781,16 @@
         <v>484</v>
       </c>
       <c r="F383" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G383" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H383" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I383" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14804,16 +14807,16 @@
         <v>484</v>
       </c>
       <c r="F384" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G384" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H384" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="I384" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14830,16 +14833,16 @@
         <v>484</v>
       </c>
       <c r="F385" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G385" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H385" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="I385" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14856,16 +14859,16 @@
         <v>484</v>
       </c>
       <c r="F386" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G386" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H386" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="I386" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14882,16 +14885,16 @@
         <v>484</v>
       </c>
       <c r="F387" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G387" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="I387" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14908,16 +14911,16 @@
         <v>484</v>
       </c>
       <c r="F388" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G388" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H388" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="I388" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14934,16 +14937,16 @@
         <v>484</v>
       </c>
       <c r="F389" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G389" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H389" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="I389" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14960,16 +14963,16 @@
         <v>484</v>
       </c>
       <c r="F390" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G390" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H390" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="I390" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14986,16 +14989,16 @@
         <v>484</v>
       </c>
       <c r="F391" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G391" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H391" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="I391" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15012,16 +15015,16 @@
         <v>484</v>
       </c>
       <c r="F392" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G392" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H392" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="I392" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15038,16 +15041,16 @@
         <v>484</v>
       </c>
       <c r="F393" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G393" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H393" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="I393" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15064,16 +15067,16 @@
         <v>484</v>
       </c>
       <c r="F394" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G394" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H394" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="I394" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15093,16 +15096,16 @@
         <v>484</v>
       </c>
       <c r="F395" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G395" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H395" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I395" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15119,16 +15122,16 @@
         <v>484</v>
       </c>
       <c r="F396" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G396" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H396" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I396" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15145,16 +15148,16 @@
         <v>484</v>
       </c>
       <c r="F397" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G397" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H397" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I397" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15171,16 +15174,16 @@
         <v>484</v>
       </c>
       <c r="F398" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G398" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H398" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I398" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15197,16 +15200,16 @@
         <v>484</v>
       </c>
       <c r="F399" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G399" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H399" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I399" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15223,16 +15226,16 @@
         <v>484</v>
       </c>
       <c r="F400" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G400" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H400" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I400" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15249,16 +15252,16 @@
         <v>484</v>
       </c>
       <c r="F401" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G401" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H401" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I401" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15275,16 +15278,16 @@
         <v>484</v>
       </c>
       <c r="F402" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G402" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H402" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I402" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15301,16 +15304,16 @@
         <v>484</v>
       </c>
       <c r="F403" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G403" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H403" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I403" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15327,16 +15330,16 @@
         <v>484</v>
       </c>
       <c r="F404" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G404" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H404" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I404" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15353,16 +15356,16 @@
         <v>484</v>
       </c>
       <c r="F405" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G405" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H405" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I405" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15379,16 +15382,16 @@
         <v>484</v>
       </c>
       <c r="F406" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G406" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H406" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I406" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15405,16 +15408,16 @@
         <v>484</v>
       </c>
       <c r="F407" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G407" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H407" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I407" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15431,16 +15434,16 @@
         <v>484</v>
       </c>
       <c r="F408" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G408" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H408" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I408" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15457,16 +15460,16 @@
         <v>484</v>
       </c>
       <c r="F409" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G409" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H409" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I409" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15483,16 +15486,16 @@
         <v>484</v>
       </c>
       <c r="F410" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G410" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H410" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I410" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15509,16 +15512,16 @@
         <v>484</v>
       </c>
       <c r="F411" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G411" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H411" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I411" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15535,16 +15538,16 @@
         <v>484</v>
       </c>
       <c r="F412" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G412" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H412" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I412" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15564,16 +15567,16 @@
         <v>484</v>
       </c>
       <c r="F413" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G413" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H413" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I413" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15593,16 +15596,16 @@
         <v>484</v>
       </c>
       <c r="F414" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G414" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H414" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I414" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15622,16 +15625,16 @@
         <v>484</v>
       </c>
       <c r="F415" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G415" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H415" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I415" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15651,16 +15654,16 @@
         <v>484</v>
       </c>
       <c r="F416" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G416" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H416" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I416" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15680,16 +15683,16 @@
         <v>484</v>
       </c>
       <c r="F417" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G417" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H417" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I417" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15709,16 +15712,16 @@
         <v>484</v>
       </c>
       <c r="F418" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G418" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H418" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I418" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15738,16 +15741,16 @@
         <v>484</v>
       </c>
       <c r="F419" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G419" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H419" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I419" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15767,16 +15770,16 @@
         <v>484</v>
       </c>
       <c r="F420" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G420" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H420" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I420" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15796,16 +15799,16 @@
         <v>484</v>
       </c>
       <c r="F421" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G421" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H421" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I421" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15825,16 +15828,16 @@
         <v>484</v>
       </c>
       <c r="F422" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G422" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H422" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I422" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15854,16 +15857,16 @@
         <v>484</v>
       </c>
       <c r="F423" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G423" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H423" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I423" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15883,16 +15886,16 @@
         <v>484</v>
       </c>
       <c r="F424" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G424" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H424" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I424" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15912,16 +15915,16 @@
         <v>484</v>
       </c>
       <c r="F425" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G425" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H425" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I425" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15941,16 +15944,16 @@
         <v>484</v>
       </c>
       <c r="F426" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G426" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H426" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I426" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15967,19 +15970,19 @@
         <v>484</v>
       </c>
       <c r="F427" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G427" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H427" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I427" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J427" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15996,19 +15999,19 @@
         <v>484</v>
       </c>
       <c r="F428" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G428" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H428" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I428" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J428" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16025,19 +16028,19 @@
         <v>484</v>
       </c>
       <c r="F429" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G429" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H429" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I429" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J429" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16054,22 +16057,22 @@
         <v>484</v>
       </c>
       <c r="F430" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H430" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I430" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J430" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="K430" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="L430" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16089,16 +16092,16 @@
         <v>537</v>
       </c>
       <c r="G431" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H431" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I431" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J431" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16115,25 +16118,25 @@
         <v>484</v>
       </c>
       <c r="F432" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G432" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H432" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I432" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="J432" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="K432" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="L432" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16150,16 +16153,16 @@
         <v>484</v>
       </c>
       <c r="F433" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G433" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H433" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="I433" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16176,16 +16179,16 @@
         <v>484</v>
       </c>
       <c r="F434" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G434" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H434" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="I434" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16202,16 +16205,16 @@
         <v>484</v>
       </c>
       <c r="F435" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G435" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H435" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I435" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16228,16 +16231,16 @@
         <v>484</v>
       </c>
       <c r="F436" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G436" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H436" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="I436" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16254,16 +16257,16 @@
         <v>484</v>
       </c>
       <c r="F437" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G437" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H437" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="I437" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16280,16 +16283,16 @@
         <v>484</v>
       </c>
       <c r="F438" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G438" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H438" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I438" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16306,16 +16309,16 @@
         <v>484</v>
       </c>
       <c r="F439" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G439" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H439" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I439" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16332,16 +16335,16 @@
         <v>484</v>
       </c>
       <c r="F440" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G440" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H440" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I440" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16358,16 +16361,16 @@
         <v>484</v>
       </c>
       <c r="F441" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G441" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H441" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I441" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16384,16 +16387,16 @@
         <v>484</v>
       </c>
       <c r="F442" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G442" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H442" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I442" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16410,16 +16413,16 @@
         <v>484</v>
       </c>
       <c r="F443" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G443" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H443" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I443" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16436,16 +16439,16 @@
         <v>484</v>
       </c>
       <c r="F444" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G444" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H444" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I444" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16462,16 +16465,16 @@
         <v>484</v>
       </c>
       <c r="F445" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G445" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H445" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I445" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16488,16 +16491,16 @@
         <v>484</v>
       </c>
       <c r="F446" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G446" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H446" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I446" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16514,16 +16517,16 @@
         <v>484</v>
       </c>
       <c r="F447" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G447" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H447" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I447" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16540,16 +16543,16 @@
         <v>484</v>
       </c>
       <c r="F448" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G448" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H448" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I448" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16566,16 +16569,16 @@
         <v>484</v>
       </c>
       <c r="F449" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G449" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H449" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I449" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16592,16 +16595,16 @@
         <v>484</v>
       </c>
       <c r="F450" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G450" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H450" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I450" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16618,16 +16621,16 @@
         <v>484</v>
       </c>
       <c r="F451" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G451" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H451" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="I451" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16644,22 +16647,22 @@
         <v>484</v>
       </c>
       <c r="F452" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G452" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H452" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="I452" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="K452" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="L452" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16676,16 +16679,16 @@
         <v>484</v>
       </c>
       <c r="F453" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G453" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H453" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="I453" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16702,16 +16705,16 @@
         <v>484</v>
       </c>
       <c r="F454" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G454" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H454" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I454" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16728,22 +16731,22 @@
         <v>484</v>
       </c>
       <c r="F455" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G455" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="H455" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I455" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K455" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="L455" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16760,28 +16763,28 @@
         <v>484</v>
       </c>
       <c r="F456" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G456" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H456" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I456" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K456" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="L456" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="M456" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="N456" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16798,16 +16801,16 @@
         <v>484</v>
       </c>
       <c r="F457" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G457" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H457" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I457" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16824,16 +16827,16 @@
         <v>484</v>
       </c>
       <c r="F458" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G458" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H458" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="I458" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16850,16 +16853,16 @@
         <v>484</v>
       </c>
       <c r="F459" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G459" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H459" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="I459" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16876,22 +16879,22 @@
         <v>484</v>
       </c>
       <c r="F460" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G460" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H460" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="I460" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="K460" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="L460" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16908,16 +16911,16 @@
         <v>484</v>
       </c>
       <c r="F461" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G461" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H461" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="I461" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16934,16 +16937,16 @@
         <v>484</v>
       </c>
       <c r="F462" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G462" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H462" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="I462" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16960,16 +16963,16 @@
         <v>484</v>
       </c>
       <c r="F463" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G463" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H463" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="I463" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -16986,16 +16989,16 @@
         <v>484</v>
       </c>
       <c r="F464" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G464" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H464" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="I464" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17012,16 +17015,16 @@
         <v>484</v>
       </c>
       <c r="F465" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G465" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H465" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="I465" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17038,16 +17041,16 @@
         <v>484</v>
       </c>
       <c r="F466" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G466" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H466" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I466" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17064,16 +17067,16 @@
         <v>484</v>
       </c>
       <c r="F467" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G467" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H467" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I467" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17090,16 +17093,16 @@
         <v>484</v>
       </c>
       <c r="F468" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G468" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H468" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I468" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -17116,16 +17119,16 @@
         <v>484</v>
       </c>
       <c r="F469" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G469" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H469" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I469" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -17142,16 +17145,16 @@
         <v>484</v>
       </c>
       <c r="F470" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G470" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H470" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I470" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -17168,16 +17171,16 @@
         <v>484</v>
       </c>
       <c r="F471" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G471" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H471" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I471" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -17194,16 +17197,16 @@
         <v>484</v>
       </c>
       <c r="F472" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G472" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H472" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I472" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -17220,16 +17223,16 @@
         <v>484</v>
       </c>
       <c r="F473" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G473" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H473" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I473" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -17246,16 +17249,16 @@
         <v>484</v>
       </c>
       <c r="F474" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G474" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H474" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I474" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -17272,16 +17275,16 @@
         <v>484</v>
       </c>
       <c r="F475" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G475" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H475" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="I475" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -17298,19 +17301,20 @@
         <v>484</v>
       </c>
       <c r="F476" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G476" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H476" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="I476" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>